--- a/results/case1/data_case1_consq_recipe.xlsx
+++ b/results/case1/data_case1_consq_recipe.xlsx
@@ -103,508 +103,508 @@
     <t>alubox (small + wipe)</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509609447553], ["'autoclave' (unit, DK, None)", 0.0004971124661923789], ["'waste polypropylene' (kilogram, CH, None)", 1.8559812498314242e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732305431508e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483388933539e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.768465445332104e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028026592113513104], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.954636016914789e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140269719516e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.7955184818821804e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838909939818e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005546509609447553], ["'autoclave' (unit, DK, None)", 0.0004971124661923789], ["'waste polypropylene' (kilogram, CH, None)", 1.231538960168515e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.480594347343918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963222592890255e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00018456436302214028], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838909939818e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385774971014], ["'autoclave' (unit, DK, None)", 0.0009942249323847574], ["'waste polypropylene' (kilogram, CH, None)", 5.255722604662818e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.700351310538501e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587011324490577e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.920426633178773e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279237247066], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.892593837316355e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039503533114e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508502765865297], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001687286132922752]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001589385774971014], ["'autoclave' (unit, DK, None)", 0.0009942249323847574], ["'waste polypropylene' (kilogram, CH, None)", 3.469123831460606e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112270540826e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015724674216327064], ["'marginal heating grid' (megajoule, DK, None)", -0.0005280284422119182], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001687286132922752]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007380689988397908], ["'mechanical disinfection' (unit, DK, None)", 0.0005279122942355963], ["'autoclave' (unit, DK, None)", 0.0013919149053386612], ["'aluminium scrap' (kilogram, RER, None)", 5.735055478029703e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006393424757951631], ["'waste plastic, mixture' (kilogram, CH, None)", 4.75567484160186e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170239792508e-05], ["'steel recycling' (kilogram, RER, None)", 8.912370206713806e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.682412714538724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840429853833073e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.647562496191301e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007380689988397908], ["'wet wipe' (unit, GLO, None)", 0.00016753771357433855], ["'autoclave' (unit, DK, None)", 0.0013919149053386612], ["'aluminium scrap' (kilogram, RER, None)", 5.735055478029703e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006393424757951631], ["'waste plastic, mixture' (kilogram, CH, None)", 4.75567484160186e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170239792508e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495312152506e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.775588538171673e-07], ["'steel recycling' (kilogram, RER, None)", 8.912370206713806e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.682412714538724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5006303742455922e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.039058411945081e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004376277451042863], ["'mechanical disinfection' (unit, DK, None)", 0.0002639561471177982], ["'autoclave' (unit, DK, None)", 0.0007732860585214783], ["'aluminium scrap' (kilogram, RER, None)", 3.399796467436913e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00037900841570193925], ["'waste plastic, mixture' (kilogram, CH, None)", 9.51134968320372e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024309906582e-05], ["'steel recycling' (kilogram, RER, None)", 8.912370206713806e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.682412714538724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214926916519e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3237812480956504e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004376277451042863], ["'wet wipe' (unit, GLO, None)", 0.00016753771357433855], ["'autoclave' (unit, DK, None)", 0.0007732860585214783], ["'aluminium scrap' (kilogram, RER, None)", 3.399796467436913e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00037900841570193925], ["'waste plastic, mixture' (kilogram, CH, None)", 9.51134968320372e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024309906582e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.000495312152506e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.775588538171673e-07], ["'steel recycling' (kilogram, RER, None)", 8.912370206713806e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.682412714538724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4937101593186747e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.015820599464123e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325574034916], ["'autoclave' (unit, DK, None)", 0.04397002655602767], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070328790402], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672436619], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851737132644], ["'marginal heating grid' (megajoule, DK, None)", -0.0030780586549409364], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12906649433015838], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013466193873424835], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.001197637280831049], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453564069534], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728915894389]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2183325574034916], ["'autoclave' (unit, DK, None)", 0.04397002655602767], ["'waste polypropylene' (kilogram, CH, None)", 0.18235766292935687], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720530838734], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567824755096], ["'marginal heating grid' (megajoule, DK, None)", -0.020520391032939577], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.008233728915894389]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752932339211], ["'autoclave' (unit, DK, None)", 0.0879400531120553], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896844385], ["'waste polyethylene' (kilogram, CH, None)", 0.0100042793048775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002239505119484077], ["'marginal heating grid' (megajoule, DK, None)", -0.008806155695454622], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666231146842], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04052932136661844], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.003607738163713889], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911448083196], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443764363625]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.6251752932339211], ["'autoclave' (unit, DK, None)", 0.0879400531120553], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575474842], ["'waste polyethylene' (kilogram, CH, None)", 0.0665938348865706], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930034129893858], ["'marginal heating grid' (megajoule, DK, None)", -0.05870770463636415], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02342443764363625]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1788349228180185], ["'mechanical disinfection' (unit, DK, None)", 0.05095177852251787], ["'autoclave' (unit, DK, None)", 0.12311607435687749], ["'aluminium scrap' (kilogram, RER, None)", 0.006803949425052921], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14657898936993055], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742633467227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157561055647], ["'steel recycling' (kilogram, RER, None)", 3.794794101555124e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005363773274240113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141009298340537e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.1672922231703916e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1788349228180185], ["'wet wipe' (unit, GLO, None)", 0.02690356728332114], ["'autoclave' (unit, DK, None)", 0.12311607435687749], ["'aluminium scrap' (kilogram, RER, None)", 0.006803949425052921], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14657898936993055], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742633467227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157561055647], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832873318868], ["'waste polyethylene' (kilogram, CH, None)", 0.01459590901623465], ["'steel recycling' (kilogram, RER, None)", 3.794794101555124e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005363773274240113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001424796621896264], ["'marginal heating grid' (megajoule, DK, None)", -0.005602568521775373]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1060037503036299], ["'mechanical disinfection' (unit, DK, None)", 0.025475889261258936], ["'autoclave' (unit, DK, None)", 0.06839781908715416], ["'aluminium scrap' (kilogram, RER, None)", 0.004033447158188855], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08689344543735233], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526693445], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00257694870184163], ["'steel recycling' (kilogram, RER, None)", 3.794794101555124e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005363773274240113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504649170251e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.5836461115851958e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1060037503036299], ["'wet wipe' (unit, GLO, None)", 0.02690356728332114], ["'autoclave' (unit, DK, None)", 0.06839781908715416], ["'aluminium scrap' (kilogram, RER, None)", 0.004033447158188855], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08689344543735233], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526693445], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00257694870184163], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832873318868], ["'waste polyethylene' (kilogram, CH, None)", 0.01459590901623465], ["'steel recycling' (kilogram, RER, None)", 3.794794101555124e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005363773274240113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.001418226117247093], ["'marginal heating grid' (megajoule, DK, None)", -0.00557673206065952]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693248545829], ["'autoclave' (unit, DK, None)", 0.019219649662517834], ["'waste polypropylene' (kilogram, CH, None)", 0.0014335603261584802], ["'waste polyethylene' (kilogram, CH, None)", 0.0017283352004780423], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588106602553], ["'marginal heating grid' (megajoule, DK, None)", -0.0007796204116010154], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913120171408187], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023552578434847413], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00029061735286402046], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853470198686], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00031245084935809523]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.005876693248545829], ["'autoclave' (unit, DK, None)", 0.019219649662517834], ["'waste polypropylene' (kilogram, CH, None)", 0.009512409640864682], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520098601255], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587377350354], ["'marginal heating grid' (megajoule, DK, None)", -0.005197469410673437], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00031245084935809523]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403340040722], ["'autoclave' (unit, DK, None)", 0.038439299325035654], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521297439435], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718173919962], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239921571759], ["'marginal heating grid' (megajoule, DK, None)", -0.0022304509099891397], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0061676000482440265], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000708864011145893], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497974858387], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948883014644188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028910535684]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01682403340040722], ["'autoclave' (unit, DK, None)", 0.038439299325035654], ["'waste polypropylene' (kilogram, CH, None)", 0.026795520115111784], ["'waste polyethylene' (kilogram, CH, None)", 0.003472526687199002], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159947714511], ["'marginal heating grid' (megajoule, DK, None)", -0.01486967273326093], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028910535684]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005287155868575655], ["'mechanical disinfection' (unit, DK, None)", 0.03185291845650122], ["'autoclave' (unit, DK, None)", 0.05381501905504994], ["'aluminium scrap' (kilogram, RER, None)", 0.0012925671428634918], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035016875220136206], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011659472272e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.843621897804883e-05], ["'steel recycling' (kilogram, RER, None)", 1.1503915882381078e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.888894216957083e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428922596854459e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.3087880841465409e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.005287155868575655], ["'wet wipe' (unit, GLO, None)", 0.001177937188661117], ["'autoclave' (unit, DK, None)", 0.05381501905504994], ["'aluminium scrap' (kilogram, RER, None)", 0.0012925671428634918], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035016875220136206], ["'waste plastic, mixture' (kilogram, CH, None)", 1.890011659472272e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.843621897804883e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.2204297944447426e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0007611017396600552], ["'steel recycling' (kilogram, RER, None)", 1.1503915882381078e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.888894216957083e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000697047463438559], ["'marginal heating grid' (megajoule, DK, None)", -0.001419036238948222]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0031566987588404092], ["'mechanical disinfection' (unit, DK, None)", 0.01592645922825061], ["'autoclave' (unit, DK, None)", 0.029897232808361075], ["'aluminium scrap' (kilogram, RER, None)", 0.0007662463289268921], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020758342989037368], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023318944544e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77892057009988e-05], ["'steel recycling' (kilogram, RER, None)", 1.1503915882381078e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.888894216957083e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.214461298427221e-06], ["'marginal heating grid' (megajoule, DK, None)", -6.5439404207327045e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0031566987588404092], ["'wet wipe' (unit, GLO, None)", 0.001177937188661117], ["'autoclave' (unit, DK, None)", 0.029897232808361075], ["'aluminium scrap' (kilogram, RER, None)", 0.0007662463289268921], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020758342989037368], ["'waste plastic, mixture' (kilogram, CH, None)", 3.780023318944544e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77892057009988e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.2204297944447426e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0007611017396600552], ["'steel recycling' (kilogram, RER, None)", 1.1503915882381078e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.888894216957083e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006938330021401314], ["'marginal heating grid' (megajoule, DK, None)", -0.0014124922985274888]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341278088861], ["'autoclave' (unit, DK, None)", 0.022716063476064835], ["'waste polypropylene' (kilogram, CH, None)", 0.0020754548997293583], ["'waste polyethylene' (kilogram, CH, None)", 0.002502405452559315], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004728008888198249], ["'marginal heating grid' (megajoule, DK, None)", -0.0009784559512057054], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002973336140822401], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003192075205225564], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003743484413273288], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525118663801705], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00045563994228497024]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007822341278088861], ["'autoclave' (unit, DK, None)", 0.022716063476064835], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082316303], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355633124973], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059254654996], ["'marginal heating grid' (megajoule, DK, None)", -0.006523039674704704], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00045563994228497024]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575472171831], ["'autoclave' (unit, DK, None)", 0.04543212695212965], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222753439212], ["'waste polyethylene' (kilogram, CH, None)", 0.000755313205405518], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572124326858], ["'marginal heating grid' (megajoule, DK, None)", -0.0027993083996727575], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661323506759], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009607216637086648], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796238058459], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01958454046867654], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012962667978297098]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02239575472171831], ["'autoclave' (unit, DK, None)", 0.04543212695212965], ["'waste polypropylene' (kilogram, CH, None)", 0.038793549527651565], ["'waste polyethylene' (kilogram, CH, None)", 0.0050277687533072475], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714749551244], ["'marginal heating grid' (megajoule, DK, None)", -0.01866205599781838], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012962667978297098]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00726605915263506], ["'mechanical disinfection' (unit, DK, None)", 0.03873191884481064], ["'autoclave' (unit, DK, None)", 0.06360497773298154], ["'aluminium scrap' (kilogram, RER, None)", 0.0018126276709313955], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004903489233501176], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976154644724e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521620439570173e-05], ["'steel recycling' (kilogram, RER, None)", 1.6691573758562115e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.386995825891198e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.93714685061326e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.642583327404801e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00726605915263506], ["'wet wipe' (unit, GLO, None)", 0.0010972047575258936], ["'autoclave' (unit, DK, None)", 0.06360497773298154], ["'aluminium scrap' (kilogram, RER, None)", 0.0018126276709313955], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004903489233501176], ["'waste plastic, mixture' (kilogram, CH, None)", 2.5164976154644724e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.521620439570173e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.299027001173668e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0011019767130536432], ["'steel recycling' (kilogram, RER, None)", 1.6691573758562115e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.386995825891198e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008605746912968424], ["'marginal heating grid' (megajoule, DK, None)", -0.001780949334207556]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004338623455870279], ["'mechanical disinfection' (unit, DK, None)", 0.01936595942240532], ["'autoclave' (unit, DK, None)", 0.035336098740545295], ["'aluminium scrap' (kilogram, RER, None)", 0.0010745432500206826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029068359387343823], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995230928945e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260376674678343], ["'steel recycling' (kilogram, RER, None)", 1.6691573758562115e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.386995825891198e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.968573425306619e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.212916637024006e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004338623455870279], ["'wet wipe' (unit, GLO, None)", 0.0010972047575258936], ["'autoclave' (unit, DK, None)", 0.035336098740545295], ["'aluminium scrap' (kilogram, RER, None)", 0.0010745432500206826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029068359387343823], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995230928945e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014260376674678343], ["'waste wipe incineration' (kilogram, CH, None)", 4.299027001173668e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0011019767130536432], ["'steel recycling' (kilogram, RER, None)", 1.6691573758562115e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.386995825891198e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0008566061178715353], ["'marginal heating grid' (megajoule, DK, None)", -0.0017727364175705316]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931404447813], ["'autoclave' (unit, DK, None)", 1.7598613276627957], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178354924314], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135965018], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023999249195653192], ["'marginal heating grid' (megajoule, DK, None)", -0.08280685870314326], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807723267823], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.03928093689690697], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046246652354], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10534574026002048], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504152299874256]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.7548931404447813], ["'autoclave' (unit, DK, None)", 1.7598613276627957], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594983174077], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023454905109], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.15999499463768796], ["'marginal heating grid' (megajoule, DK, None)", -0.5520457246876218], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504152299874256]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865613492387], ["'autoclave' (unit, DK, None)", 3.51972265532559], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243378897825], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442526360083], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052557240546], ["'marginal heating grid' (megajoule, DK, None)", -0.2369058462290361], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.016849855886639], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11822417901010834], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158360408343], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2967485641127338], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703871176451568]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.158865613492387], ["'autoclave' (unit, DK, None)", 3.51972265532559], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352065279093], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523199782926], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368371493701], ["'marginal heating grid' (megajoule, DK, None)", -1.579372308193574], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703871176451568]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2538643329868115], ["'mechanical disinfection' (unit, DK, None)", 2.1405378608785877], ["'autoclave' (unit, DK, None)", 4.927611717455829], ["'aluminium scrap' (kilogram, RER, None)", 0.45595427520074894], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12435142872268642], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073577294286], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775170915271157], ["'steel recycling' (kilogram, RER, None)", 0.00011983724243177947], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.013035154357663056], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000402887493815503], ["'marginal heating grid' (megajoule, DK, None)", -0.0013901204784225667]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2538643329868115], ["'wet wipe' (unit, GLO, None)", 0.07422476430392122], ["'autoclave' (unit, DK, None)", 4.927611717455829], ["'aluminium scrap' (kilogram, RER, None)", 0.45595427520074894], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12435142872268642], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073577294286], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775170915271157], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613091677185782], ["'waste polyethylene' (kilogram, CH, None)", 0.04237484536938723], ["'steel recycling' (kilogram, RER, None)", 0.00011983724243177947], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.013035154357663056], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04368254577409592], ["'marginal heating grid' (megajoule, DK, None)", -0.15072198160117053]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1556158093799135], ["'mechanical disinfection' (unit, DK, None)", 1.0702689304392938], ["'autoclave' (unit, DK, None)", 2.7375620652532375], ["'aluminium scrap' (kilogram, RER, None)", 0.27029411312213214], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0737167320720263], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014715458857], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745590584100124], ["'steel recycling' (kilogram, RER, None)", 0.00011983724243177947], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.013035154357663056], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020144374690775097], ["'marginal heating grid' (megajoule, DK, None)", -0.0006950602392112833]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1556158093799135], ["'wet wipe' (unit, GLO, None)", 0.07422476430392122], ["'autoclave' (unit, DK, None)", 2.7375620652532375], ["'aluminium scrap' (kilogram, RER, None)", 0.27029411312213214], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0737167320720263], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014715458857], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745590584100124], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613091677185782], ["'waste polyethylene' (kilogram, CH, None)", 0.04237484536938723], ["'steel recycling' (kilogram, RER, None)", 0.00011983724243177947], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.013035154357663056], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.04348110202718815], ["'marginal heating grid' (megajoule, DK, None)", -0.15002692136195922]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192405946522], ["'autoclave' (unit, DK, None)", 0.011383003770114664], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584248368653], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296926925095], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296589479735163], ["'marginal heating grid' (megajoule, DK, None)", -0.0004626613309848596], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10001930681092207], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010045942576825307], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428713587209], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01428095992504061], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018550420653974773]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1432192405946522], ["'autoclave' (unit, DK, None)", 0.011383003770114664], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069921814713], ["'waste polyethylene' (kilogram, CH, None)", 8.01787418887573e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864392986490108], ["'marginal heating grid' (megajoule, DK, None)", -0.0030844088732323973], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018550420653974773]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337203177113], ["'autoclave' (unit, DK, None)", 0.02276600754022932], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249558182899], ["'waste polyethylene' (kilogram, CH, None)", 3.6284465036315195e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000552064760289892], ["'marginal heating grid' (megajoule, DK, None)", -0.0013236484978539555], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28151129400425084], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030235361153551892], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0010628966826349362], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805612687497], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0052774772683301645]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4098337203177113], ["'autoclave' (unit, DK, None)", 0.02276600754022932], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746258632998], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152880981620145], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804317352659498], ["'marginal heating grid' (megajoule, DK, None)", -0.00882432331902637], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0052774772683301645]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04144168449467235], ["'mechanical disinfection' (unit, DK, None)", 0.012412662342688868], ["'autoclave' (unit, DK, None)", 0.03187241055632106], ["'aluminium scrap' (kilogram, RER, None)", 0.002252555897552717], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03181275730533777], ["'waste plastic, mixture' (kilogram, CH, None)", 2.439742972564996e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003469398293195915], ["'steel recycling' (kilogram, RER, None)", 9.002977919801938e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00014336010033060215], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2394157464247726e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.76692898207816e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.04144168449467235], ["'wet wipe' (unit, GLO, None)", 0.014284030404186533], ["'autoclave' (unit, DK, None)", 0.03187241055632106], ["'aluminium scrap' (kilogram, RER, None)", 0.002252555897552717], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03181275730533777], ["'waste plastic, mixture' (kilogram, CH, None)", 2.439742972564996e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003469398293195915], ["'waste wipe incineration' (kilogram, CH, None)", 0.0001330548073092096], ["'waste polyethylene' (kilogram, CH, None)", 5.2937821329578396e-05], ["'steel recycling' (kilogram, RER, None)", 9.002977919801938e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00014336010033060215], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035122938486973243], ["'marginal heating grid' (megajoule, DK, None)", -0.0008421190431370159]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.024514279394094073], ["'mechanical disinfection' (unit, DK, None)", 0.006206331171344434], ["'autoclave' (unit, DK, None)", 0.017706894753511702], ["'aluminium scrap' (kilogram, RER, None)", 0.0013353369662319151], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01885891083712286], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485945129992e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805812033791472], ["'steel recycling' (kilogram, RER, None)", 9.002977919801938e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00014336010033060215], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.619707873212382e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.88346449103908e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.024514279394094073], ["'wet wipe' (unit, GLO, None)", 0.014284030404186533], ["'autoclave' (unit, DK, None)", 0.017706894753511702], ["'aluminium scrap' (kilogram, RER, None)", 0.0013353369662319151], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01885891083712286], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485945129992e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805812033791472], ["'waste wipe incineration' (kilogram, CH, None)", 0.0001330548073092096], ["'waste polyethylene' (kilogram, CH, None)", 5.2937821329578396e-05], ["'steel recycling' (kilogram, RER, None)", 9.002977919801938e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00014336010033060215], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00034960967699651984], ["'marginal heating grid' (megajoule, DK, None)", -0.0008382355786459766]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956242261125e-05], ["'autoclave' (unit, DK, None)", -1.5678591116166765e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.603892901609347e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236796654716134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547977706009164e-07], ["'marginal heating grid' (megajoule, DK, None)", -7.441841987199052e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874316541965e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5836016735092335e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.038251148361269e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092582161734e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766252534152e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.971956242261125e-05], ["'autoclave' (unit, DK, None)", -1.5678591116166765e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.0549195889183514e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.417353318163177e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.1031985137339444e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.9612279914660354e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5161766252534152e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00014343999528544], ["'autoclave' (unit, DK, None)", -3.135718223233352e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.3037192048482543e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465051467340922e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702064185615e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.129069863404009e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769261278368e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.766179794056916e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.2164745550084153e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.1814345301864042e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.313426538300064e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00014343999528544], ["'autoclave' (unit, DK, None)", -3.135718223233352e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.605407292727751e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365566406268e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134709457081e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.419379908936006e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.313426538300064e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.294319802583622e-05], ["'mechanical disinfection' (unit, DK, None)", 2.868100974485155e-05], ["'autoclave' (unit, DK, None)", -4.3900055125266944e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.8821445053129205e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8128060863424534e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489565573265e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.835634131407495e-06], ["'steel recycling' (kilogram, RER, None)", 1.8059647961539736e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.255323997279612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118044902636e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.2492995273104838e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.294319802583622e-05], ["'wet wipe' (unit, GLO, None)", 1.3534267798842956e-05], ["'autoclave' (unit, DK, None)", -4.3900055125266944e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.8821445053129205e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8128060863424534e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.821489565573265e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.835634131407495e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417913772e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.2562993022260313e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059647961539736e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.255323997279612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.742246221904757e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.3545365548697687e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.7423586425191715e-05], ["'mechanical disinfection' (unit, DK, None)", 1.4340504872425776e-05], ["'autoclave' (unit, DK, None)", -2.438891951403719e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7085631944352093e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.853078090262408e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.64297913114653e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248994859581e-06], ["'steel recycling' (kilogram, RER, None)", 1.8059647961539736e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.255323997279612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.648059022451311e-09], ["'marginal heating grid' (megajoule, DK, None)", -6.246497636552419e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.7423586425191715e-05], ["'wet wipe' (unit, GLO, None)", 1.3534267798842956e-05], ["'autoclave' (unit, DK, None)", -2.438891951403719e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.7085631944352093e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.853078090262408e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.64297913114653e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.745248994859581e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417913772e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.2562993022260313e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059647961539736e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.255323997279612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.71576563168024e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.348290057233216e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816877490182e-06], ["'autoclave' (unit, DK, None)", 0.00011404429153950914], ["'waste polypropylene' (kilogram, CH, None)", 4.2862178247981535e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350968710387e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3704670080357146e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.019337438391323e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914233040291e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7589705404483379e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.4697383415513126e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134413349557e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718146575623e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.551816877490182e-06], ["'autoclave' (unit, DK, None)", 0.00011404429153950914], ["'waste polypropylene' (kilogram, CH, None)", 2.8441258463613915e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.435398546261693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2469780053571433e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.679558292260882e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718146575623e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355755351919e-05], ["'autoclave' (unit, DK, None)", 0.0002280885830790182], ["'waste polypropylene' (kilogram, CH, None)", 1.213760748517608e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714191473133e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719833006284e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.0081936470633536e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5243963900941215e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.293989005232862e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789502059662e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.6287702572815655e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185486618624e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.597355755351919e-05], ["'autoclave' (unit, DK, None)", 0.0002280885830790182], ["'waste polypropylene' (kilogram, CH, None)", 8.011622102426457e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724644172086e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.42847988867086e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.3387957647089023e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185486618624e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.749511399477423e-06], ["'mechanical disinfection' (unit, DK, None)", 7.722947808989256e-05], ["'autoclave' (unit, DK, None)", 0.0003193240163106256], ["'aluminium scrap' (kilogram, RER, None)", 4.8472445513776257e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.4719296507725194e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320620728e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2240523495652512e-07], ["'steel recycling' (kilogram, RER, None)", 1.1659293082670148e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5789566157607353e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172865263201e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.1783715589365287e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.749511399477423e-06], ["'wet wipe' (unit, GLO, None)", 9.65147480807616e-05], ["'autoclave' (unit, DK, None)", 0.0003193240163106256], ["'aluminium scrap' (kilogram, RER, None)", 4.8472445513776257e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.4719296507725194e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320620728e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2240523495652512e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458507245e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.268213620640457e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293082670148e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5789566157607353e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.13479939136042e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.2776338395281563e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.3997523272063076e-06], ["'mechanical disinfection' (unit, DK, None)", 3.861473904494628e-05], ["'autoclave' (unit, DK, None)", 0.00017740223128368088], ["'aluminium scrap' (kilogram, RER, None)", 2.8734935460882602e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.058193544439981e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488641241456e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.721806723722561e-07], ["'steel recycling' (kilogram, RER, None)", 1.1659293082670148e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5789566157607353e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.829086432631593e-10], ["'marginal heating grid' (megajoule, DK, None)", -5.891857794682643e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.3997523272063076e-06], ["'wet wipe' (unit, GLO, None)", 9.65147480807616e-05], ["'autoclave' (unit, DK, None)", 0.00017740223128368088], ["'aluminium scrap' (kilogram, RER, None)", 2.8734935460882602e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.058193544439981e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488641241456e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.721806723722561e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458507245e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.268213620640457e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293082670148e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5789566157607353e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.1065085270341e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.2717419817334733e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0061164262140735], ["'autoclave' (unit, DK, None)", 0.0023281887795969947], ["'waste polypropylene' (kilogram, CH, None)", 6.352133531795594e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809749019009e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758932330478945], ["'marginal heating grid' (megajoule, DK, None)", -0.000163066114283478], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921415371396277], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004095387187295522], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238630078959e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132891541856], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138678752326]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0061164262140735], ["'autoclave' (unit, DK, None)", 0.0023281887795969947], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967109883057], ["'waste polyethylene' (kilogram, CH, None)", 5.120887786731027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839288220319296], ["'marginal heating grid' (megajoule, DK, None)", -0.00108710742855652], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138678752326]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0175404723819386], ["'autoclave' (unit, DK, None)", 0.004656377559193988], ["'waste polypropylene' (kilogram, CH, None)", 0.00017987817384430515], ["'waste polyethylene' (kilogram, CH, None)", 2.317430649015829e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003364165551175946], ["'marginal heating grid' (megajoule, DK, None)", -0.00046652314072314477], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590419101602], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001232592260253992], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435488133314], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0033693332088850303], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684502127209937]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0175404723819386], ["'autoclave' (unit, DK, None)", 0.004656377559193988], ["'waste polypropylene' (kilogram, CH, None)", 0.001187314678840298], ["'waste polyethylene' (kilogram, CH, None)", 0.0001542605811958865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002242777034117299], ["'marginal heating grid' (megajoule, DK, None)", -0.0031101542714876314], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684502127209937]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03174636506029119], ["'mechanical disinfection' (unit, DK, None)", 0.006515241212640819], ["'autoclave' (unit, DK, None)", 0.006518928582871586], ["'aluminium scrap' (kilogram, RER, None)", 0.00041365014085277703], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02867243155993076], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739325345043e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532898462856], ["'steel recycling' (kilogram, RER, None)", 0.0006589884841930416], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00037708432630154977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974031244873622e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.737473059023947e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03174636506029119], ["'wet wipe' (unit, GLO, None)", 0.0007634749811190458], ["'autoclave' (unit, DK, None)", 0.006518928582871586], ["'aluminium scrap' (kilogram, RER, None)", 0.00041365014085277703], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02867243155993076], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739325345043e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532898462856], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998896220312e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.381053834430389e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006589884841930416], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00037708432630154977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002140317372402127], ["'marginal heating grid' (megajoule, DK, None)", -0.0002968069102212641]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01898420205602716], ["'mechanical disinfection' (unit, DK, None)", 0.0032576206063204094], ["'autoclave' (unit, DK, None)", 0.0036216269904842144], ["'aluminium scrap' (kilogram, RER, None)", 0.0002452158122992039], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016997295301451724], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147865069009e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023855364409133072], ["'steel recycling' (kilogram, RER, None)", 0.0006589884841930416], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00037708432630154977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870156224368085e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.3687365295119736e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01898420205602716], ["'wet wipe' (unit, GLO, None)", 0.0007634749811190458], ["'autoclave' (unit, DK, None)", 0.0036216269904842144], ["'aluminium scrap' (kilogram, RER, None)", 0.0002452158122992039], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016997295301451724], ["'waste plastic, mixture' (kilogram, CH, None)", 6.741147865069009e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023855364409133072], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998896220312e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.381053834430389e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006589884841930416], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00037708432630154977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00021304472161777575], ["'marginal heating grid' (megajoule, DK, None)", -0.0002954381736917521]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933202971751], ["'autoclave' (unit, DK, None)", 0.09853009450796171], ["'waste polypropylene' (kilogram, CH, None)", 0.017294967996184792], ["'waste polyethylene' (kilogram, CH, None)", 0.02085251902672874], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850713043031], ["'marginal heating grid' (megajoule, DK, None)", -0.011932296712230674], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.049915194223339475], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00544527391081179], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970349058217], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562177641672], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01639072713111552]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1232933202971751], ["'autoclave' (unit, DK, None)", 0.09853009450796171], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100259150657], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056268286052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004753620206], ["'marginal heating grid' (megajoule, DK, None)", -0.0795486447482045], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01639072713111552]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902890145017], ["'autoclave' (unit, DK, None)", 0.19706018901592334], ["'waste polypropylene' (kilogram, CH, None)", 0.048975470120037314], ["'waste polyethylene' (kilogram, CH, None)", 0.006294017210819959], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355163630368], ["'marginal heating grid' (megajoule, DK, None)", -0.034137641426550694], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978506569057], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016388688469433543], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537915319799], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778078208922], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663058130023054]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.3534902890145017], ["'autoclave' (unit, DK, None)", 0.19706018901592334], ["'waste polypropylene' (kilogram, CH, None)", 0.3232704298352298], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634556746417], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236775753584], ["'marginal heating grid' (megajoule, DK, None)", -0.22758427617700458], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663058130023054]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16061691412866644], ["'mechanical disinfection' (unit, DK, None)", 0.2674130184972323], ["'autoclave' (unit, DK, None)", 0.2758842646222928], ["'aluminium scrap' (kilogram, RER, None)", 0.04107504450246805], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12254572755061983], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059483085663], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654809286358455], ["'steel recycling' (kilogram, RER, None)", 6.343404884334932e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0010575081290276683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824690585703e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00020031347975353744]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.16061691412866644], ["'wet wipe' (unit, GLO, None)", 0.02704675453369914], ["'autoclave' (unit, DK, None)", 0.2758842646222928], ["'aluminium scrap' (kilogram, RER, None)", 0.04107504450246805], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12254572755061983], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003687059483085663], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654809286358455], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529259718248], ["'waste polyethylene' (kilogram, CH, None)", 0.009182760672320912], ["'steel recycling' (kilogram, RER, None)", 6.343404884334932e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0010575081290276683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006940009849660771], ["'marginal heating grid' (megajoule, DK, None)", -0.02171872515980698]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09545127981440837], ["'mechanical disinfection' (unit, DK, None)", 0.13370650924861616], ["'autoclave' (unit, DK, None)", 0.15326903590127378], ["'aluminium scrap' (kilogram, RER, None)", 0.024349684451052764], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07264629491765935], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118966171326], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882636921914], ["'steel recycling' (kilogram, RER, None)", 6.343404884334932e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0010575081290276683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2004123452928436e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00010015673987676872]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.09545127981440837], ["'wet wipe' (unit, GLO, None)", 0.02704675453369914], ["'autoclave' (unit, DK, None)", 0.15326903590127378], ["'aluminium scrap' (kilogram, RER, None)", 0.024349684451052764], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07264629491765935], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118966171326], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882636921914], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529259718248], ["'waste polyethylene' (kilogram, CH, None)", 0.009182760672320912], ["'steel recycling' (kilogram, RER, None)", 6.343404884334932e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0010575081290276683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006908005726207838], ["'marginal heating grid' (megajoule, DK, None)", -0.02161856841993021]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498022718626], ["'autoclave' (unit, DK, None)", 0.0010565027623144927], ["'waste polypropylene' (kilogram, CH, None)", 1.9399935410293984e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.121016682891851e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590371580217193e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.008809252605651e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360420099366], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002435326674908065], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957398255568], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139957941326054], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748754491976]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007527498022718626], ["'autoclave' (unit, DK, None)", 0.0010565027623144927], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854337671708e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816322279471338e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060247720144795e-05], ["'marginal heating grid' (megajoule, DK, None)", -3.3392061684037674e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000504748754491976]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467008660553], ["'autoclave' (unit, DK, None)", 0.0021130055246289846], ["'waste polypropylene' (kilogram, CH, None)", 5.493626569457082e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420316409829531e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604697038189233e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.432992644778741e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0054001345553259805], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007329623973024273], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0007051064195623066], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00482815716657072], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0014359782604059697]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02155467008660553], ["'autoclave' (unit, DK, None)", 0.0021130055246289846], ["'waste polypropylene' (kilogram, CH, None)", 3.62615615145682e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270666546360692e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736464692126158e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.553284298524939e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0014359782604059697]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0029468320838352555], ["'mechanical disinfection' (unit, DK, None)", 0.0011018532507349713], ["'autoclave' (unit, DK, None)", 0.00295820773448058], ["'aluminium scrap' (kilogram, RER, None)", -0.0001314788485477648], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007780317903182835], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856208649154e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079553948034e-05], ["'steel recycling' (kilogram, RER, None)", 5.497626516693555e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 1.4519875479224219e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2887344285327514e-08], ["'marginal heating grid' (megajoule, DK, None)", -8.408540576959773e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0029468320838352555], ["'wet wipe' (unit, GLO, None)", 0.0005592620967173008], ["'autoclave' (unit, DK, None)", 0.00295820773448058], ["'aluminium scrap' (kilogram, RER, None)", -0.0001314788485477648], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007780317903182835], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856208649154e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079553948034e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558252291896e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.374392667695494e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626516693555e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 1.4519875479224219e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5657669800744537e-06], ["'marginal heating grid' (megajoule, DK, None)", -9.11684935086597e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0017206499480313074], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266253674856], ["'autoclave' (unit, DK, None)", 0.0016434487413781], ["'aluminium scrap' (kilogram, RER, None)", -7.79419356181943e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046122478542900974], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712417298308e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001579735817065077], ["'steel recycling' (kilogram, RER, None)", 5.497626516693555e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 1.4519875479224219e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443672142663714e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.204270288479886e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0017206499480313074], ["'wet wipe' (unit, GLO, None)", 0.0005592620967173008], ["'autoclave' (unit, DK, None)", 0.0016434487413781], ["'aluminium scrap' (kilogram, RER, None)", -7.79419356181943e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046122478542900974], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712417298308e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0001579735817065077], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558252291896e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.374392667695494e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626516693555e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 1.4519875479224219e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.5493233079317875e-06], ["'marginal heating grid' (megajoule, DK, None)", -9.074806647981168e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332084183963], ["'autoclave' (unit, DK, None)", 0.15166276425743005], ["'waste polypropylene' (kilogram, CH, None)", -6.194529003193591e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498791825625955e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038581557554338186], ["'marginal heating grid' (megajoule, DK, None)", -0.013108891206987244], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001446272768521673], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015376278014965996], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986432744467204e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205739629661998], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949901089514636]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01012332084183963], ["'autoclave' (unit, DK, None)", 0.15166276425743005], ["'waste polypropylene' (kilogram, CH, None)", -4.11038840398827e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035561619929365e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02572103836955879], ["'marginal heating grid' (megajoule, DK, None)", -0.08739260804658164], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949901089514636]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981986000227354], ["'autoclave' (unit, DK, None)", 0.30332552851486], ["'waste polypropylene' (kilogram, CH, None)", -1.7541516709978116e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788167440945817e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970386018031], ["'marginal heating grid' (megajoule, DK, None)", -0.037503813248718244], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00407063527564047], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004627811829747047], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045787772191438], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659050609015], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.014082155314790056]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02981986000227354], ["'autoclave' (unit, DK, None)", 0.30332552851486], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578558884474003], ["'waste polyethylene' (kilogram, CH, None)", -1.5169023311754206e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646924012027], ["'marginal heating grid' (megajoule, DK, None)", -0.2500254216581216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.014082155314790056]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004545736539061259], ["'mechanical disinfection' (unit, DK, None)", 0.17642834315179087], ["'autoclave' (unit, DK, None)", 0.4246557399208042], ["'aluminium scrap' (kilogram, RER, None)", -0.0002158292634754278], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014106541140226146], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888408567230583e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257568176908702], ["'steel recycling' (kilogram, RER, None)", 3.88864528369976e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.742557512475988e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880548988706e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00022006556463606994]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.004545736539061259], ["'wet wipe' (unit, GLO, None)", 0.006460183218537588], ["'autoclave' (unit, DK, None)", 0.4246557399208042], ["'aluminium scrap' (kilogram, RER, None)", -0.0002158292634754278], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0014106541140226146], ["'waste plastic, mixture' (kilogram, CH, None)", 5.5888408567230583e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257568176908702], ["'waste wipe incineration' (kilogram, CH, None)", -9.067294371179105e-06], ["'waste polyethylene' (kilogram, CH, None)", -3.3247174381927026e-06], ["'steel recycling' (kilogram, RER, None)", 3.88864528369976e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.742557512475988e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007022472412214244], ["'marginal heating grid' (megajoule, DK, None)", -0.023860318942835086]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0027107039668734074], ["'mechanical disinfection' (unit, DK, None)", 0.08821417157589544], ["'autoclave' (unit, DK, None)", 0.23591985551155786], ["'aluminium scrap' (kilogram, RER, None)", -0.0001279456790512794], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008362494298445902], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177681713446117e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491937270664478], ["'steel recycling' (kilogram, RER, None)", 3.88864528369976e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.742557512475988e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440274494344e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011003278231803497]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0027107039668734074], ["'wet wipe' (unit, GLO, None)", 0.006460183218537588], ["'autoclave' (unit, DK, None)", 0.23591985551155786], ["'aluminium scrap' (kilogram, RER, None)", -0.0001279456790512794], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008362494298445902], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177681713446117e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015491937270664478], ["'waste wipe incineration' (kilogram, CH, None)", -9.067294371179105e-06], ["'waste polyethylene' (kilogram, CH, None)", -3.3247174381927026e-06], ["'steel recycling' (kilogram, RER, None)", 3.88864528369976e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.742557512475988e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006990088009469296], ["'marginal heating grid' (megajoule, DK, None)", -0.023750286160517046]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612648152763659], ["'autoclave' (unit, DK, None)", 0.00027968537696953626], ["'waste polypropylene' (kilogram, CH, None)", 2.8498014878747134e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088078015830526e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462314515515e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.1545993898648437e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746266142141], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0456520609790312e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.002069734512747e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771485784800388e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.200237713621832e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0002612648152763659], ["'autoclave' (unit, DK, None)", 0.00027968537696953626], ["'waste polypropylene' (kilogram, CH, None)", 1.890989772328081e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.0596630435860484e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641543010343e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.697329265765626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.200237713621832e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488848112413152], ["'autoclave' (unit, DK, None)", 0.0005593707539390723], ["'waste polypropylene' (kilogram, CH, None)", 8.069998605850824e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320896029433423e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094269641980022e-05], ["'marginal heating grid' (megajoule, DK, None)", -3.303245042684811e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003697630219274238], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.147108144694171e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030994110843076e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597601629521236e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104473748563376e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0007488848112413152], ["'autoclave' (unit, DK, None)", 0.0005593707539390723], ["'waste polypropylene' (kilogram, CH, None)", 5.326731753036848e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204487022631975e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001939617976132003], ["'marginal heating grid' (megajoule, DK, None)", -2.2021633617898737e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104473748563376e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020192017226283413], ["'mechanical disinfection' (unit, DK, None)", 0.00012895512447028438], ["'autoclave' (unit, DK, None)", 0.0007831190555147015], ["'aluminium scrap' (kilogram, RER, None)", -0.00018241107318463148], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001795889677604565], ["'waste plastic, mixture' (kilogram, CH, None)", 4.45741190225323e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254711235769e-06], ["'steel recycling' (kilogram, RER, None)", 2.4082858087503226e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6266724479220004e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989010758081e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.93828419693983e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020192017226283413], ["'wet wipe' (unit, GLO, None)", 4.498308318040242e-05], ["'autoclave' (unit, DK, None)", 0.0007831190555147015], ["'aluminium scrap' (kilogram, RER, None)", -0.00018241107318463148], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001795889677604565], ["'waste plastic, mixture' (kilogram, CH, None)", 4.45741190225323e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254711235769e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543084626994e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.3598875666042683e-06], ["'steel recycling' (kilogram, RER, None)", 2.4082858087503226e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6266724479220004e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8510079187486714e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.1015591065927723e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012181063298651663], ["'mechanical disinfection' (unit, DK, None)", 6.447756223514219e-05], ["'autoclave' (unit, DK, None)", 0.00043506614195261195], ["'aluminium scrap' (kilogram, RER, None)", -0.00010813505198166703], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001064620805363863], ["'waste plastic, mixture' (kilogram, CH, None)", 8.91482380450646e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0015933856873394e-05], ["'steel recycling' (kilogram, RER, None)", 2.4082858087503226e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6266724479220004e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994505379018e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.69142098469915e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012181063298651663], ["'wet wipe' (unit, GLO, None)", 4.498308318040242e-05], ["'autoclave' (unit, DK, None)", 0.00043506614195261195], ["'aluminium scrap' (kilogram, RER, None)", -0.00010813505198166703], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001064620805363863], ["'waste plastic, mixture' (kilogram, CH, None)", 8.91482380450646e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0015933856873394e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543084626994e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.3598875666042683e-06], ["'steel recycling' (kilogram, RER, None)", 2.4082858087503226e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6266724479220004e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.8424719242432914e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.091867685608073e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.10794367115293e-08], ["'autoclave' (unit, DK, None)", -1.5755509588081885e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598023048752e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.5709747972972892e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468502130604e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.0090990157857786e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895039586673e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0227278523616265e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531006346426e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.17171576042893e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607177409561e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 3.10794367115293e-08], ["'autoclave' (unit, DK, None)", -1.5755509588081885e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976258284687e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.7147694290230544e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4695645668087067e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.72732677190519e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607177409561e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348347307228e-08], ["'autoclave' (unit, DK, None)", -3.151101917616376e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798318676423e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.760098241383561e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931608801354e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.8869765138735157e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.727288338956514e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.087821691573828e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.086232861609171e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.583581904346178e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439193826327e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 8.915348347307228e-08], ["'autoclave' (unit, DK, None)", -3.151101917616376e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.985345424868926e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536519340425e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287739200908e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9246510092490105e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439193826327e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.696123002472212e-08], ["'mechanical disinfection' (unit, DK, None)", 1.2061027949315126e-07], ["'autoclave' (unit, DK, None)", -4.4115426846629283e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.065394712384112e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7669845028072746e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220036432613e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.089397734762358e-10], ["'steel recycling' (kilogram, RER, None)", 1.0763091167711261e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.1073067961809934e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673786578316e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.6940253845743577e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.696123002472212e-08], ["'wet wipe' (unit, GLO, None)", 9.532841711320018e-08], ["'autoclave' (unit, DK, None)", -4.4115426846629283e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.065394712384112e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.7669845028072746e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220036432613e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.089397734762358e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359606558e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.132172387800641e-09], ["'steel recycling' (kilogram, RER, None)", 1.0763091167711261e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.1073067961809934e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.7425151315512184e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.8367247070229716e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.18563189793307e-08], ["'mechanical disinfection' (unit, DK, None)", 6.030513974657563e-08], ["'autoclave' (unit, DK, None)", -2.45085704703496e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2243860018314568e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6402952289013815e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440072865227e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905853942424e-10], ["'steel recycling' (kilogram, RER, None)", 1.0763091167711261e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.1073067961809934e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368932891495e-11], ["'marginal heating grid' (megajoule, DK, None)", -8.470126922871789e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.18563189793307e-08], ["'wet wipe' (unit, GLO, None)", 9.532841711320018e-08], ["'autoclave' (unit, DK, None)", -2.45085704703496e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2243860018314568e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6402952289013815e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440072865227e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905853942424e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359606558e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.132172387800641e-09], ["'steel recycling' (kilogram, RER, None)", 1.0763091167711261e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.1073067961809934e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.711421762618323e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.8282545801000994e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000293718753788489], ["'autoclave' (unit, DK, None)", 0.00020622983649550133], ["'waste polypropylene' (kilogram, CH, None)", 6.539683553499722e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216502307784e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073072942155755e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.91603260015005e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625674852225], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3063240174749865e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259521612844e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.495230414109079e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.106662644257292e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000293718753788489], ["'autoclave' (unit, DK, None)", 0.00020622983649550133], ["'waste polypropylene' (kilogram, CH, None)", 4.339416189705423e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478346034642e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382048628103838e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.9440217334333676e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.106662644257292e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452237411763], ["'autoclave' (unit, DK, None)", 0.0004124596729910025], ["'waste polypropylene' (kilogram, CH, None)", 1.8518916978602018e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690176690466e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317645489404921e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.5508276502995054e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003392576762789534], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9316548098761724e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556857267142e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719476363606e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195307554765]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008425452237411763], ["'autoclave' (unit, DK, None)", 0.0004124596729910025], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707576634996e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453339499125e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.5450969929366186e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00017005517668663368], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195307554765]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034152690281258596], ["'mechanical disinfection' (unit, DK, None)", 0.00019474642587122444], ["'autoclave' (unit, DK, None)", 0.0005774435421874038], ["'aluminium scrap' (kilogram, RER, None)", 1.8495184045459077e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000288763576419729], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705304517538e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498806190064e-06], ["'steel recycling' (kilogram, RER, None)", 5.1962036225822726e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.114762618664976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880643306667263e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.4967793366229108e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034152690281258596], ["'wet wipe' (unit, GLO, None)", 4.381202592156674e-05], ["'autoclave' (unit, DK, None)", 0.0005774435421874038], ["'aluminium scrap' (kilogram, RER, None)", 1.8495184045459077e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000288763576419729], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705304517538e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498806190064e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323845749969e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.360976074410767e-07], ["'steel recycling' (kilogram, RER, None)", 5.1962036225822726e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.114762618664976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.291773210219309e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6228632779475812e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020313348909316978], ["'mechanical disinfection' (unit, DK, None)", 9.737321293561222e-05], ["'autoclave' (unit, DK, None)", 0.00032080196788189096], ["'aluminium scrap' (kilogram, RER, None)", 1.096412434426003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017118184659192218], ["'waste plastic, mixture' (kilogram, CH, None)", 3.5067410609035076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.28528144150964e-05], ["'steel recycling' (kilogram, RER, None)", 5.1962036225822726e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.114762618664976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403216533336254e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.483896683114554e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020313348909316978], ["'wet wipe' (unit, GLO, None)", 4.381202592156674e-05], ["'autoclave' (unit, DK, None)", 0.00032080196788189096], ["'aluminium scrap' (kilogram, RER, None)", 1.096412434426003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017118184659192218], ["'waste plastic, mixture' (kilogram, CH, None)", 3.5067410609035076e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.28528144150964e-05], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323845749969e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.360976074410767e-07], ["'steel recycling' (kilogram, RER, None)", 5.1962036225822726e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.114762618664976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.267369993685969e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6153793812644662e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848631361135], ["'autoclave' (unit, DK, None)", 0.0003542998955977201], ["'waste polypropylene' (kilogram, CH, None)", 4.470534417017592e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346124675096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626361091137287e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.9849870376004185e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454829381653], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7622059931103026e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098213741435999e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657315097883005e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517142353707e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0004875848631361135], ["'autoclave' (unit, DK, None)", 0.0003542998955977201], ["'waste polypropylene' (kilogram, CH, None)", 2.966429379516346e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.581873057466785e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417574060758191e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00019899913584002792], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517142353707e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001396529907537372], ["'autoclave' (unit, DK, None)", 0.00070859979119544], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550732302153e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576835028504e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.75404870576932e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.539882942070688e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260281372203], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.3134355132446e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869063788835e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734454957150145], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651319908536702e-05]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509609447553], ["'autoclave' (unit, DK, None)", 0.0004971124661923789], ["'waste polypropylene' (kilogram, CH, None)", 1.855981249831424e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.2198732305431504e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.244483388933539e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.768465445332104e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028026592113513104], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -2.9546360169147885e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.6089140269719516e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.7955184818821804e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838909939818e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005546509609447553], ["'autoclave' (unit, DK, None)", 0.0004971124661923789], ["'waste polypropylene' (kilogram, CH, None)", 1.2315389601685149e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.480594347343918e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4963222592890255e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00018456436302214028], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.930838909939818e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0015893857749710138], ["'autoclave' (unit, DK, None)", 0.0009942249323847574], ["'waste polypropylene' (kilogram, CH, None)", 5.2557226046628174e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.7003513105385e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3587011324490577e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.920426633178773e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007888279237247066], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -8.892593837316354e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.859039503533114e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013508502765865297], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001687286132922752]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0015893857749710138], ["'autoclave' (unit, DK, None)", 0.0009942249323847574], ["'waste polypropylene' (kilogram, CH, None)", 3.4691238314606056e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.460112270540825e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015724674216327064], ["'marginal heating grid' (megajoule, DK, None)", -0.0005280284422119182], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001687286132922752]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007380689988397909], ["'mechanical disinfection' (unit, DK, None)", 0.0005279122942355963], ["'autoclave' (unit, DK, None)", 0.0013919149053386612], ["'aluminium scrap' (kilogram, RER, None)", 5.735055478029703e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006393424757951631], ["'waste plastic, mixture' (kilogram, CH, None)", 4.75567484160186e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170239792508e-05], ["'steel recycling' (kilogram, RER, None)", 8.91237020671381e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.682412714538724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3840429853833073e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.647562496191301e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007380689988397909], ["'wet wipe' (unit, GLO, None)", 0.00016753771357433855], ["'autoclave' (unit, DK, None)", 0.0013919149053386612], ["'aluminium scrap' (kilogram, RER, None)", 5.735055478029703e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0006393424757951631], ["'waste plastic, mixture' (kilogram, CH, None)", 4.75567484160186e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1092170239792508e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.0004953121525064e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.77558853817167e-07], ["'steel recycling' (kilogram, RER, None)", 8.91237020671381e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.682412714538724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5006303742455922e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.039058411945081e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004376277451042862], ["'mechanical disinfection' (unit, DK, None)", 0.0002639561471177982], ["'autoclave' (unit, DK, None)", 0.0007732860585214783], ["'aluminium scrap' (kilogram, RER, None)", 3.399796467436913e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00037900841570193925], ["'waste plastic, mixture' (kilogram, CH, None)", 9.51134968320372e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024309906582e-05], ["'steel recycling' (kilogram, RER, None)", 8.91237020671381e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.682412714538724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.920214926916519e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.3237812480956504e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004376277451042862], ["'wet wipe' (unit, GLO, None)", 0.00016753771357433855], ["'autoclave' (unit, DK, None)", 0.0007732860585214783], ["'aluminium scrap' (kilogram, RER, None)", 3.399796467436913e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00037900841570193925], ["'waste plastic, mixture' (kilogram, CH, None)", 9.51134968320372e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8562024309906582e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.0004953121525064e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.77558853817167e-07], ["'steel recycling' (kilogram, RER, None)", 8.91237020671381e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.682412714538724e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.493710159318674e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.015820599464123e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.21833255740349158], ["'autoclave' (unit, DK, None)", 0.04397002655602767], ["'waste polypropylene' (kilogram, CH, None)", 0.027482070328790405], ["'waste polyethylene' (kilogram, CH, None)", 0.03314487672436619], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007827851737132644], ["'marginal heating grid' (megajoule, DK, None)", -0.0030780586549409364], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1290664943301584], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.013466193873424839], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011976372808310493], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04262453564069534], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00823372891589439]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.21833255740349158], ["'autoclave' (unit, DK, None)", 0.04397002655602767], ["'waste polypropylene' (kilogram, CH, None)", 0.1823576629293569], ["'waste polyethylene' (kilogram, CH, None)", 0.022106720530838734], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005218567824755096], ["'marginal heating grid' (megajoule, DK, None)", -0.020520391032939577], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00823372891589439]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752932339211], ["'autoclave' (unit, DK, None)", 0.0879400531120553], ["'waste polypropylene' (kilogram, CH, None)", 0.07782305896844387], ["'waste polyethylene' (kilogram, CH, None)", 0.0100042793048775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002239505119484077], ["'marginal heating grid' (megajoule, DK, None)", -0.008806155695454622], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3632666231146843], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.040529321366618444], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0036077381637138893], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.12006911448083196], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.023424437643636255]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.6251752932339211], ["'autoclave' (unit, DK, None)", 0.0879400531120553], ["'waste polypropylene' (kilogram, CH, None)", 0.5136835575474843], ["'waste polyethylene' (kilogram, CH, None)", 0.0665938348865706], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014930034129893858], ["'marginal heating grid' (megajoule, DK, None)", -0.05870770463636414], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.023424437643636255]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1788349228180185], ["'mechanical disinfection' (unit, DK, None)", 0.05095177852251787], ["'autoclave' (unit, DK, None)", 0.12311607435687749], ["'aluminium scrap' (kilogram, RER, None)", 0.006803949425052921], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14657898936993052], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742633467227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157561055649], ["'steel recycling' (kilogram, RER, None)", 3.794794101555124e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005363773274240113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3141009298340537e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.167292223170391e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1788349228180185], ["'wet wipe' (unit, GLO, None)", 0.026903567283321137], ["'autoclave' (unit, DK, None)", 0.12311607435687749], ["'aluminium scrap' (kilogram, RER, None)", 0.006803949425052921], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.14657898936993052], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00037898742633467227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015399157561055649], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832873318868], ["'waste polyethylene' (kilogram, CH, None)", 0.01459590901623465], ["'steel recycling' (kilogram, RER, None)", 3.794794101555124e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005363773274240113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001424796621896264], ["'marginal heating grid' (megajoule, DK, None)", -0.0056025685217753725]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10600375030362992], ["'mechanical disinfection' (unit, DK, None)", 0.025475889261258936], ["'autoclave' (unit, DK, None)", 0.06839781908715416], ["'aluminium scrap' (kilogram, RER, None)", 0.004033447158188855], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08689344543735232], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526693445], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0025769487018416303], ["'steel recycling' (kilogram, RER, None)", 3.794794101555124e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005363773274240113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.570504649170251e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.5836461115851955e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.10600375030362992], ["'wet wipe' (unit, GLO, None)", 0.026903567283321137], ["'autoclave' (unit, DK, None)", 0.06839781908715416], ["'aluminium scrap' (kilogram, RER, None)", 0.004033447158188855], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.08689344543735232], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007579748526693445], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0025769487018416303], ["'waste wipe incineration' (kilogram, CH, None)", 0.0017845832873318868], ["'waste polyethylene' (kilogram, CH, None)", 0.01459590901623465], ["'steel recycling' (kilogram, RER, None)", 3.794794101555124e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005363773274240113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001418226117247092], ["'marginal heating grid' (megajoule, DK, None)", -0.00557673206065952]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0058766932485458286], ["'autoclave' (unit, DK, None)", 0.019219649662517834], ["'waste polypropylene' (kilogram, CH, None)", 0.00143356032615848], ["'waste polyethylene' (kilogram, CH, None)", 0.001728335200478042], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003829588106602553], ["'marginal heating grid' (megajoule, DK, None)", -0.0007796204116010156], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021913120171408187], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00023552578434847413], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00029061735286402046], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.005306853470198686], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00031245084935809523]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0058766932485458286], ["'autoclave' (unit, DK, None)", 0.019219649662517834], ["'waste polypropylene' (kilogram, CH, None)", 0.00951240964086468], ["'waste polyethylene' (kilogram, CH, None)", 0.0011527520098601252], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025530587377350354], ["'marginal heating grid' (megajoule, DK, None)", -0.005197469410673438], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00031245084935809523]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403340040722], ["'autoclave' (unit, DK, None)", 0.038439299325035654], ["'waste polypropylene' (kilogram, CH, None)", 0.004059521297439434], ["'waste polyethylene' (kilogram, CH, None)", 0.0005216718173919961], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010956239921571759], ["'marginal heating grid' (megajoule, DK, None)", -0.00223045090998914], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0061676000482440265], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.000708864011145893], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0008754497974858387], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014948883014644188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028910535684]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01682403340040722], ["'autoclave' (unit, DK, None)", 0.038439299325035654], ["'waste polypropylene' (kilogram, CH, None)", 0.026795520115111778], ["'waste polyethylene' (kilogram, CH, None)", 0.0034725266871990018], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007304159947714511], ["'marginal heating grid' (megajoule, DK, None)", -0.014869672733260932], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008889028910535684]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005287155868575655], ["'mechanical disinfection' (unit, DK, None)", 0.03185291845650122], ["'autoclave' (unit, DK, None)", 0.05381501905504994], ["'aluminium scrap' (kilogram, RER, None)", 0.0012925671428634913], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003501687522013621], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116594722723e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.843621897804883e-05], ["'steel recycling' (kilogram, RER, None)", 1.1503915882381078e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.888894216957083e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428922596854459e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.308788084146541e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.005287155868575655], ["'wet wipe' (unit, GLO, None)", 0.001177937188661117], ["'autoclave' (unit, DK, None)", 0.05381501905504994], ["'aluminium scrap' (kilogram, RER, None)", 0.0012925671428634913], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003501687522013621], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8900116594722723e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.843621897804883e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429794444742e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0007611017396600551], ["'steel recycling' (kilogram, RER, None)", 1.1503915882381078e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.888894216957083e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000697047463438559], ["'marginal heating grid' (megajoule, DK, None)", -0.0014190362389482221]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0031566987588404092], ["'mechanical disinfection' (unit, DK, None)", 0.01592645922825061], ["'autoclave' (unit, DK, None)", 0.029897232808361075], ["'aluminium scrap' (kilogram, RER, None)", 0.0007662463289268918], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020758342989037368], ["'waste plastic, mixture' (kilogram, CH, None)", 3.7800233189445446e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77892057009988e-05], ["'steel recycling' (kilogram, RER, None)", 1.1503915882381078e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.888894216957083e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.214461298427221e-06], ["'marginal heating grid' (megajoule, DK, None)", -6.543940420732705e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0031566987588404092], ["'wet wipe' (unit, GLO, None)", 0.001177937188661117], ["'autoclave' (unit, DK, None)", 0.029897232808361075], ["'aluminium scrap' (kilogram, RER, None)", 0.0007662463289268918], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020758342989037368], ["'waste plastic, mixture' (kilogram, CH, None)", 3.7800233189445446e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.77892057009988e-05], ["'waste wipe incineration' (kilogram, CH, None)", 3.220429794444742e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0007611017396600551], ["'steel recycling' (kilogram, RER, None)", 1.1503915882381078e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.888894216957083e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006938330021401311], ["'marginal heating grid' (megajoule, DK, None)", -0.0014124922985274892]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341278088861], ["'autoclave' (unit, DK, None)", 0.02271606347606484], ["'waste polypropylene' (kilogram, CH, None)", 0.0020754548997293587], ["'waste polyethylene' (kilogram, CH, None)", 0.0025024054525593156], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00047280088881982487], ["'marginal heating grid' (megajoule, DK, None)", -0.0009784559512057054], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002973336140822401], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0003192075205225564], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00037434844132732873], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0069525118663801705], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399422849702]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007822341278088861], ["'autoclave' (unit, DK, None)", 0.02271606347606484], ["'waste polypropylene' (kilogram, CH, None)", 0.013771710082316304], ["'waste polyethylene' (kilogram, CH, None)", 0.0016690355633124977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031520059254654988], ["'marginal heating grid' (megajoule, DK, None)", -0.006523039674704704], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0004556399422849702]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575472171831], ["'autoclave' (unit, DK, None)", 0.045432126952129656], ["'waste polypropylene' (kilogram, CH, None)", 0.005877222753439213], ["'waste polyethylene' (kilogram, CH, None)", 0.0007553132054055182], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013526572124326855], ["'marginal heating grid' (megajoule, DK, None)", -0.0027993083996727575], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008368661323506759], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0009607216637086648], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011276796238058459], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.01958454046867654], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012962667978297093]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02239575472171831], ["'autoclave' (unit, DK, None)", 0.045432126952129656], ["'waste polypropylene' (kilogram, CH, None)", 0.03879354952765157], ["'waste polyethylene' (kilogram, CH, None)", 0.005027768753307248], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009017714749551244], ["'marginal heating grid' (megajoule, DK, None)", -0.01866205599781838], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012962667978297093]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007266059152635059], ["'mechanical disinfection' (unit, DK, None)", 0.03873191884481064], ["'autoclave' (unit, DK, None)", 0.06360497773298156], ["'aluminium scrap' (kilogram, RER, None)", 0.0018126276709313953], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004903489233501176], ["'waste plastic, mixture' (kilogram, CH, None)", 2.516497615464472e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.52162043957017e-05], ["'steel recycling' (kilogram, RER, None)", 1.6691573758562115e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.386995825891198e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.937146850613259e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.642583327404801e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.007266059152635059], ["'wet wipe' (unit, GLO, None)", 0.0010972047575258936], ["'autoclave' (unit, DK, None)", 0.06360497773298156], ["'aluminium scrap' (kilogram, RER, None)", 0.0018126276709313953], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004903489233501176], ["'waste plastic, mixture' (kilogram, CH, None)", 2.516497615464472e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.52162043957017e-05], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990270011736684e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0011019767130536434], ["'steel recycling' (kilogram, RER, None)", 1.6691573758562115e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.386995825891198e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008605746912968423], ["'marginal heating grid' (megajoule, DK, None)", -0.001780949334207556]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00433862345587028], ["'mechanical disinfection' (unit, DK, None)", 0.01936595942240532], ["'autoclave' (unit, DK, None)", 0.0353360987405453], ["'aluminium scrap' (kilogram, RER, None)", 0.0010745432500206826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029068359387343823], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995230928944e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001426037667467834], ["'steel recycling' (kilogram, RER, None)", 1.6691573758562115e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.386995825891198e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.968573425306618e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.212916637024006e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00433862345587028], ["'wet wipe' (unit, GLO, None)", 0.0010972047575258936], ["'autoclave' (unit, DK, None)", 0.0353360987405453], ["'aluminium scrap' (kilogram, RER, None)", 0.0010745432500206826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0029068359387343823], ["'waste plastic, mixture' (kilogram, CH, None)", 5.032995230928944e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001426037667467834], ["'waste wipe incineration' (kilogram, CH, None)", 4.2990270011736684e-05], ["'waste polyethylene' (kilogram, CH, None)", 0.0011019767130536434], ["'steel recycling' (kilogram, RER, None)", 1.6691573758562115e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.386995825891198e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008566061178715347], ["'marginal heating grid' (megajoule, DK, None)", -0.0017727364175705316]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931404447813], ["'autoclave' (unit, DK, None)", 1.7598613276627957], ["'waste polypropylene' (kilogram, CH, None)", 0.07979178354924314], ["'waste polyethylene' (kilogram, CH, None)", 0.09622621135965018], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0239992491956532], ["'marginal heating grid' (megajoule, DK, None)", -0.08280685870314326], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3612807723267823], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.03928093689690697], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.009083046246652357], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.1053457402600205], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504152299874256]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.7548931404447813], ["'autoclave' (unit, DK, None)", 1.7598613276627957], ["'waste polypropylene' (kilogram, CH, None)", 0.5294594983174077], ["'waste polyethylene' (kilogram, CH, None)", 0.06418023454905109], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.159994994637688], ["'marginal heating grid' (megajoule, DK, None)", -0.5520457246876218], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.009504152299874256]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.1588656134923867], ["'autoclave' (unit, DK, None)", 3.51972265532559], ["'waste polypropylene' (kilogram, CH, None)", 0.22595243378897825], ["'waste polyethylene' (kilogram, CH, None)", 0.02904442526360083], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06866052557240547], ["'marginal heating grid' (megajoule, DK, None)", -0.2369058462290361], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.016849855886639], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.11822417901010834], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.02736158360408344], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2967485641127338], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703871176451568]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.1588656134923867], ["'autoclave' (unit, DK, None)", 3.51972265532559], ["'waste polypropylene' (kilogram, CH, None)", 1.4914352065279093], ["'waste polyethylene' (kilogram, CH, None)", 0.19333523199782926], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4577368371493702], ["'marginal heating grid' (megajoule, DK, None)", -1.579372308193574], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.02703871176451568]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2538643329868116], ["'mechanical disinfection' (unit, DK, None)", 2.140537860878587], ["'autoclave' (unit, DK, None)", 4.927611717455829], ["'aluminium scrap' (kilogram, RER, None)", 0.45595427520074894], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12435142872268645], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073577294286], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775170915271157], ["'steel recycling' (kilogram, RER, None)", 0.00011983724243177944], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.013035154357663052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004028874938155031], ["'marginal heating grid' (megajoule, DK, None)", -0.0013901204784225667]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2538643329868116], ["'wet wipe' (unit, GLO, None)", 0.07422476430392122], ["'autoclave' (unit, DK, None)", 4.927611717455829], ["'aluminium scrap' (kilogram, RER, None)", 0.45595427520074894], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12435142872268645], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00019800073577294286], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0017775170915271157], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613091677185787], ["'waste polyethylene' (kilogram, CH, None)", 0.04237484536938723], ["'steel recycling' (kilogram, RER, None)", 0.00011983724243177944], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.013035154357663052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043682545774095936], ["'marginal heating grid' (megajoule, DK, None)", -0.15072198160117053]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1556158093799135], ["'mechanical disinfection' (unit, DK, None)", 1.0702689304392936], ["'autoclave' (unit, DK, None)", 2.7375620652532375], ["'aluminium scrap' (kilogram, RER, None)", 0.27029411312213214], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07371673207202631], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014715458857], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745590584100124], ["'steel recycling' (kilogram, RER, None)", 0.00011983724243177944], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.013035154357663052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020144374690775102], ["'marginal heating grid' (megajoule, DK, None)", -0.0006950602392112833]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1556158093799135], ["'wet wipe' (unit, GLO, None)", 0.07422476430392122], ["'autoclave' (unit, DK, None)", 2.7375620652532375], ["'aluminium scrap' (kilogram, RER, None)", 0.27029411312213214], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07371673207202631], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0003960014715458857], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0029745590584100124], ["'waste wipe incineration' (kilogram, CH, None)", 0.00021613091677185787], ["'waste polyethylene' (kilogram, CH, None)", 0.04237484536938723], ["'steel recycling' (kilogram, RER, None)", 0.00011983724243177944], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.013035154357663052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043481102027188134], ["'marginal heating grid' (megajoule, DK, None)", -0.15002692136195922]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.14321924059465224], ["'autoclave' (unit, DK, None)", 0.011383003770114666], ["'waste polypropylene' (kilogram, CH, None)", 0.00010160584248368653], ["'waste polyethylene' (kilogram, CH, None)", 0.00012021296926925095], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019296589479735163], ["'marginal heating grid' (megajoule, DK, None)", -0.0004626613309848596], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1000193068109221], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.010045942576825308], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003528428713587209], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.014280959925040606], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018550420653974773]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.14321924059465224], ["'autoclave' (unit, DK, None)", 0.011383003770114666], ["'waste polypropylene' (kilogram, CH, None)", 0.0006742069921814713], ["'waste polyethylene' (kilogram, CH, None)", 8.01787418887573e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012864392986490108], ["'marginal heating grid' (megajoule, DK, None)", -0.0030844088732323973], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018550420653974773]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337203177113], ["'autoclave' (unit, DK, None)", 0.022766007540229324], ["'waste polypropylene' (kilogram, CH, None)", 0.0002877249558182899], ["'waste polyethylene' (kilogram, CH, None)", 3.6284465036315195e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000552064760289892], ["'marginal heating grid' (megajoule, DK, None)", -0.0013236484978539555], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2815112940042509], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0302353611535519], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0010628966826349362], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.04022805612687495], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0052774772683301645]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4098337203177113], ["'autoclave' (unit, DK, None)", 0.022766007540229324], ["'waste polypropylene' (kilogram, CH, None)", 0.0018991746258632998], ["'waste polyethylene' (kilogram, CH, None)", 0.00024152880981620145], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0036804317352659498], ["'marginal heating grid' (megajoule, DK, None)", -0.00882432331902637], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0052774772683301645]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.041441684494672344], ["'mechanical disinfection' (unit, DK, None)", 0.012412662342688868], ["'autoclave' (unit, DK, None)", 0.03187241055632107], ["'aluminium scrap' (kilogram, RER, None)", 0.002252555897552717], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03181275730533777], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429725649957e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003469398293195915], ["'steel recycling' (kilogram, RER, None)", 9.002977919801936e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001433601003306021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2394157464247726e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.76692898207816e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.041441684494672344], ["'wet wipe' (unit, GLO, None)", 0.014284030404186533], ["'autoclave' (unit, DK, None)", 0.03187241055632107], ["'aluminium scrap' (kilogram, RER, None)", 0.002252555897552717], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03181275730533777], ["'waste plastic, mixture' (kilogram, CH, None)", 2.4397429725649957e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003469398293195915], ["'waste wipe incineration' (kilogram, CH, None)", 0.0001330548073092096], ["'waste polyethylene' (kilogram, CH, None)", 5.2937821329578396e-05], ["'steel recycling' (kilogram, RER, None)", 9.002977919801936e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001433601003306021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035122938486973243], ["'marginal heating grid' (megajoule, DK, None)", -0.0008421190431370159]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.024514279394094073], ["'mechanical disinfection' (unit, DK, None)", 0.006206331171344434], ["'autoclave' (unit, DK, None)", 0.017706894753511702], ["'aluminium scrap' (kilogram, RER, None)", 0.0013353369662319151], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01885891083712286], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485945129991e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805812033791472], ["'steel recycling' (kilogram, RER, None)", 9.002977919801936e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001433601003306021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.619707873212382e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.88346449103908e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.024514279394094073], ["'wet wipe' (unit, GLO, None)", 0.014284030404186533], ["'autoclave' (unit, DK, None)", 0.017706894753511702], ["'aluminium scrap' (kilogram, RER, None)", 0.0013353369662319151], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01885891083712286], ["'waste plastic, mixture' (kilogram, CH, None)", 4.879485945129991e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005805812033791472], ["'waste wipe incineration' (kilogram, CH, None)", 0.0001330548073092096], ["'waste polyethylene' (kilogram, CH, None)", 5.2937821329578396e-05], ["'steel recycling' (kilogram, RER, None)", 9.002977919801936e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0001433601003306021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00034960967699651963], ["'marginal heating grid' (megajoule, DK, None)", -0.0008382355786459766]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956242261125e-05], ["'autoclave' (unit, DK, None)", -1.5678591116166762e-05], ["'waste polypropylene' (kilogram, CH, None)", 4.6038929016093454e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1236796654716134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154797770600916e-07], ["'marginal heating grid' (megajoule, DK, None)", -7.441841987199052e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3702874316541965e-05], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -1.5836016735092335e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 4.0382511483612686e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 7.744092582161732e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.516176625253415e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.971956242261125e-05], ["'autoclave' (unit, DK, None)", -1.5678591116166762e-05], ["'waste polypropylene' (kilogram, CH, None)", 3.054919588918351e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.417353318163177e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.103198513733944e-06], ["'marginal heating grid' (megajoule, DK, None)", -4.9612279914660354e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.516176625253415e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00014343999528543998], ["'autoclave' (unit, DK, None)", -3.135718223233351e-05], ["'waste polypropylene' (kilogram, CH, None)", 1.303719204848254e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5465051467340922e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.025702064185613e-07], ["'marginal heating grid' (megajoule, DK, None)", -2.129069863404009e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.856769261278368e-05], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -4.766179794056916e-06], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.2164745550084151e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.181434530186404e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265383000634e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00014343999528543998], ["'autoclave' (unit, DK, None)", -3.135718223233351e-05], ["'waste polypropylene' (kilogram, CH, None)", 8.60540729272775e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0294365566406268e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.017134709457079e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.419379908936006e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3134265383000634e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.294319802583622e-05], ["'mechanical disinfection' (unit, DK, None)", 2.868100974485155e-05], ["'autoclave' (unit, DK, None)", -4.390005512526694e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.8821445053129205e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8128060863424534e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895655732646e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341314074947e-06], ["'steel recycling' (kilogram, RER, None)", 1.8059647961539732e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.255323997279612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.296118044902635e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.2492995273104838e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.294319802583622e-05], ["'wet wipe' (unit, GLO, None)", 1.3534267798842956e-05], ["'autoclave' (unit, DK, None)", -4.390005512526694e-05], ["'aluminium scrap' (kilogram, RER, None)", 2.8821445053129205e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.8128060863424534e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 1.8214895655732646e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8356341314074947e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417913771994e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.2562993022260313e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059647961539732e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.255323997279612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.742246221904755e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.3545365548697687e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.742358642519171e-05], ["'mechanical disinfection' (unit, DK, None)", 1.4340504872425776e-05], ["'autoclave' (unit, DK, None)", -2.4388919514037185e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.708563194435209e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.853078090262408e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429791311465292e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.7452489948595804e-06], ["'steel recycling' (kilogram, RER, None)", 1.8059647961539732e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.255323997279612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6480590224513103e-09], ["'marginal heating grid' (megajoule, DK, None)", -6.246497636552419e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.742358642519171e-05], ["'wet wipe' (unit, GLO, None)", 1.3534267798842956e-05], ["'autoclave' (unit, DK, None)", -2.4388919514037185e-05], ["'aluminium scrap' (kilogram, RER, None)", 1.708563194435209e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.853078090262408e-05], ["'waste plastic, mixture' (kilogram, CH, None)", 3.6429791311465292e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.7452489948595804e-06], ["'waste wipe incineration' (kilogram, CH, None)", 4.9640417913771994e-08], ["'waste polyethylene' (kilogram, CH, None)", 2.2562993022260313e-08], ["'steel recycling' (kilogram, RER, None)", 1.8059647961539732e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.255323997279612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.715765631680236e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.348290057233216e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816877490182e-06], ["'autoclave' (unit, DK, None)", 0.00011404429153950916], ["'waste polypropylene' (kilogram, CH, None)", 4.2862178247981535e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.1507350968710387e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3704670080357146e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.019337438391323e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6074914233040291e-06], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -1.7589705404483379e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.469738341551313e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 5.782134413349557e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718146575623e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.551816877490182e-06], ["'autoclave' (unit, DK, None)", 0.00011404429153950916], ["'waste polypropylene' (kilogram, CH, None)", 2.8441258463613915e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.435398546261693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.246978005357143e-07], ["'marginal heating grid' (megajoule, DK, None)", -4.6795582922608826e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1891718146575623e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.5973557553519193e-05], ["'autoclave' (unit, DK, None)", 0.00022808858307901824], ["'waste polypropylene' (kilogram, CH, None)", 1.213760748517608e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.5546714191473133e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.642719833006282e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.008193647063354e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5243963900941215e-06], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -5.293989005232862e-07], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 7.439789502059664e-07], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.6287702572815655e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185486618624e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.5973557553519193e-05], ["'autoclave' (unit, DK, None)", 0.00022808858307901824], ["'waste polypropylene' (kilogram, CH, None)", 8.011622102426457e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.0348724644172086e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.428479888670859e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.3387957647089025e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.3831185486618624e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.7495113994774235e-06], ["'mechanical disinfection' (unit, DK, None)", 7.722947808989257e-05], ["'autoclave' (unit, DK, None)", 0.0003193240163106257], ["'aluminium scrap' (kilogram, RER, None)", 4.8472445513776257e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.471929650772519e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320620727e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2240523495652512e-07], ["'steel recycling' (kilogram, RER, None)", 1.1659293082670152e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5789566157607353e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.658172865263201e-10], ["'marginal heating grid' (megajoule, DK, None)", -1.1783715589365289e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.7495113994774235e-06], ["'wet wipe' (unit, GLO, None)", 9.65147480807616e-05], ["'autoclave' (unit, DK, None)", 0.0003193240163106257], ["'aluminium scrap' (kilogram, RER, None)", 4.8472445513776257e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.471929650772519e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 3.427244320620727e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2240523495652512e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458507245e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.268213620640457e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293082670152e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5789566157607353e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.13479939136042e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.2776338395281563e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.3997523272063067e-06], ["'mechanical disinfection' (unit, DK, None)", 3.861473904494629e-05], ["'autoclave' (unit, DK, None)", 0.00017740223128368093], ["'aluminium scrap' (kilogram, RER, None)", 2.8734935460882602e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0581935444399806e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488641241454e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.721806723722561e-07], ["'steel recycling' (kilogram, RER, None)", 1.1659293082670152e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5789566157607353e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8290864326315927e-10], ["'marginal heating grid' (megajoule, DK, None)", -5.891857794682644e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.3997523272063067e-06], ["'wet wipe' (unit, GLO, None)", 9.65147480807616e-05], ["'autoclave' (unit, DK, None)", 0.00017740223128368093], ["'aluminium scrap' (kilogram, RER, None)", 2.8734935460882602e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0581935444399806e-06], ["'waste plastic, mixture' (kilogram, CH, None)", 6.854488641241454e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.721806723722561e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.67825458507245e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.268213620640457e-08], ["'steel recycling' (kilogram, RER, None)", 1.1659293082670152e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5789566157607353e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.106508527034096e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.2717419817334736e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0061164262140735], ["'autoclave' (unit, DK, None)", 0.0023281887795969947], ["'waste polypropylene' (kilogram, CH, None)", 6.352133531795594e-05], ["'waste polyethylene' (kilogram, CH, None)", 7.677809749019009e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011758932330478945], ["'marginal heating grid' (megajoule, DK, None)", -0.000163066114283478], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029921415371396277], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0004095387187295522], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.924238630078959e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0011961132891541858], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138678752326]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0061164262140735], ["'autoclave' (unit, DK, None)", 0.0023281887795969947], ["'waste polypropylene' (kilogram, CH, None)", 0.0004214967109883057], ["'waste polyethylene' (kilogram, CH, None)", 5.120887786731027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007839288220319296], ["'marginal heating grid' (megajoule, DK, None)", -0.0010871074285565203], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007622138678752326]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.017540472381938597], ["'autoclave' (unit, DK, None)", 0.004656377559193988], ["'waste polypropylene' (kilogram, CH, None)", 0.00017987817384430515], ["'waste polyethylene' (kilogram, CH, None)", 2.317430649015829e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003364165551175946], ["'marginal heating grid' (megajoule, DK, None)", -0.0004665231407231448], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008421590419101602], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.001232592260253992], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00020858435488133314], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.003369333208885031], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684502127209937]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.017540472381938597], ["'autoclave' (unit, DK, None)", 0.004656377559193988], ["'waste polypropylene' (kilogram, CH, None)", 0.001187314678840298], ["'waste polyethylene' (kilogram, CH, None)", 0.0001542605811958865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002242777034117299], ["'marginal heating grid' (megajoule, DK, None)", -0.003110154271487632], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0021684502127209937]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03174636506029119], ["'mechanical disinfection' (unit, DK, None)", 0.006515241212640817], ["'autoclave' (unit, DK, None)", 0.006518928582871586], ["'aluminium scrap' (kilogram, RER, None)", 0.00041365014085277703], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02867243155993076], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739325345047e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532898462856], ["'steel recycling' (kilogram, RER, None)", 0.0006589884841930416], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00037708432630154977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.974031244873622e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.7374730590239476e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03174636506029119], ["'wet wipe' (unit, GLO, None)", 0.0007634749811190458], ["'autoclave' (unit, DK, None)", 0.006518928582871586], ["'aluminium scrap' (kilogram, RER, None)", 0.00041365014085277703], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02867243155993076], ["'waste plastic, mixture' (kilogram, CH, None)", 3.3705739325345047e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001425532898462856], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998896220312e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.381053834430389e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006589884841930416], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00037708432630154977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002140317372402127], ["'marginal heating grid' (megajoule, DK, None)", -0.00029680691022126413]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01898420205602716], ["'mechanical disinfection' (unit, DK, None)", 0.0032576206063204085], ["'autoclave' (unit, DK, None)", 0.0036216269904842144], ["'aluminium scrap' (kilogram, RER, None)", 0.0002452158122992039], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016997295301451724], ["'waste plastic, mixture' (kilogram, CH, None)", 6.7411478650690095e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023855364409133072], ["'steel recycling' (kilogram, RER, None)", 0.0006589884841930416], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00037708432630154977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.870156224368085e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.3687365295119738e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01898420205602716], ["'wet wipe' (unit, GLO, None)", 0.0007634749811190458], ["'autoclave' (unit, DK, None)", 0.0036216269904842144], ["'aluminium scrap' (kilogram, RER, None)", 0.0002452158122992039], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016997295301451724], ["'waste plastic, mixture' (kilogram, CH, None)", 6.7411478650690095e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023855364409133072], ["'waste wipe incineration' (kilogram, CH, None)", 4.818998896220312e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.381053834430389e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006589884841930416], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00037708432630154977], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021304472161777564], ["'marginal heating grid' (megajoule, DK, None)", -0.0002954381736917521]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.12329332029717507], ["'autoclave' (unit, DK, None)", 0.09853009450796169], ["'waste polypropylene' (kilogram, CH, None)", 0.017294967996184792], ["'waste polyethylene' (kilogram, CH, None)", 0.020852519026728737], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003812850713043031], ["'marginal heating grid' (megajoule, DK, None)", -0.011932296712230672], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.049915194223339475], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00544527391081179], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.004654970349058217], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.10425562177641669], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01639072713111552]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.12329332029717507], ["'autoclave' (unit, DK, None)", 0.09853009450796169], ["'waste polypropylene' (kilogram, CH, None)", 0.11476100259150655], ["'waste polyethylene' (kilogram, CH, None)", 0.013908056268286048], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025419004753620206], ["'marginal heating grid' (megajoule, DK, None)", -0.07954864474820449], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01639072713111552]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.35349028901450175], ["'autoclave' (unit, DK, None)", 0.1970601890159233], ["'waste polypropylene' (kilogram, CH, None)", 0.04897547012003731], ["'waste polyethylene' (kilogram, CH, None)", 0.0062940172108199586], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010908355163630368], ["'marginal heating grid' (megajoule, DK, None)", -0.03413764142655069], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14048978506569057], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.016388688469433543], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.014022537915319799], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.2936778078208921], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663058130023054]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.35349028901450175], ["'autoclave' (unit, DK, None)", 0.1970601890159233], ["'waste polypropylene' (kilogram, CH, None)", 0.3232704298352298], ["'waste polyethylene' (kilogram, CH, None)", 0.04189634556746416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07272236775753584], ["'marginal heating grid' (megajoule, DK, None)", -0.22758427617700455], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04663058130023054]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16061691412866644], ["'mechanical disinfection' (unit, DK, None)", 0.2674130184972323], ["'autoclave' (unit, DK, None)", 0.2758842646222927], ["'aluminium scrap' (kilogram, RER, None)", 0.04107504450246805], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12254572755061983], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594830856626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654809286358455], ["'steel recycling' (kilogram, RER, None)", 6.343404884334932e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0010575081290276683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.400824690585703e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002003134797535374]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.16061691412866644], ["'wet wipe' (unit, GLO, None)", 0.027046754533699147], ["'autoclave' (unit, DK, None)", 0.2758842646222927], ["'aluminium scrap' (kilogram, RER, None)", 0.04107504450246805], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.12254572755061983], ["'waste plastic, mixture' (kilogram, CH, None)", 0.00036870594830856626], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0030654809286358455], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529259718248], ["'waste polyethylene' (kilogram, CH, None)", 0.00918276067232091], ["'steel recycling' (kilogram, RER, None)", 6.343404884334932e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0010575081290276683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006940009849660771], ["'marginal heating grid' (megajoule, DK, None)", -0.021718725159806978]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09545127981440837], ["'mechanical disinfection' (unit, DK, None)", 0.13370650924861616], ["'autoclave' (unit, DK, None)", 0.15326903590127372], ["'aluminium scrap' (kilogram, RER, None)", 0.024349684451052764], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07264629491765935], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118966171325], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882636921914], ["'steel recycling' (kilogram, RER, None)", 6.343404884334932e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0010575081290276683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2004123452928436e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0001001567398767687]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.09545127981440837], ["'wet wipe' (unit, GLO, None)", 0.027046754533699147], ["'autoclave' (unit, DK, None)", 0.15326903590127372], ["'aluminium scrap' (kilogram, RER, None)", 0.024349684451052764], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.07264629491765935], ["'waste plastic, mixture' (kilogram, CH, None)", 0.0007374118966171325], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005129882636921914], ["'waste wipe incineration' (kilogram, CH, None)", 0.0007959529259718248], ["'waste polyethylene' (kilogram, CH, None)", 0.00918276067232091], ["'steel recycling' (kilogram, RER, None)", 6.343404884334932e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0010575081290276683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006908005726207834], ["'marginal heating grid' (megajoule, DK, None)", -0.021618568419930206]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498022718626], ["'autoclave' (unit, DK, None)", 0.0010565027623144927], ["'waste polypropylene' (kilogram, CH, None)", 1.9399935410293984e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.1210166828918505e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9590371580217193e-06], ["'marginal heating grid' (megajoule, DK, None)", -5.008809252605649e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019186360420099366], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0002435326674908065], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00023406957398255563], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0017139957941326052], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005047487544919762]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007527498022718626], ["'autoclave' (unit, DK, None)", 0.0010565027623144927], ["'waste polypropylene' (kilogram, CH, None)", 1.2872854337671708e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.0816322279471336e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3060247720144795e-05], ["'marginal heating grid' (megajoule, DK, None)", -3.339206168403767e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0005047487544919762]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.021554670086605533], ["'autoclave' (unit, DK, None)", 0.0021130055246289846], ["'waste polypropylene' (kilogram, CH, None)", 5.493626569457082e-07], ["'waste polyethylene' (kilogram, CH, None)", 9.420316409829531e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.604697038189233e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.4329926447787406e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0054001345553259805], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0007329623973024273], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0007051064195623065], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0048281571665707195], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0014359782604059703]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.021554670086605533], ["'autoclave' (unit, DK, None)", 0.0021130055246289846], ["'waste polypropylene' (kilogram, CH, None)", 3.62615615145682e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.270666546360691e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.736464692126158e-05], ["'marginal heating grid' (megajoule, DK, None)", -9.553284298524936e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0014359782604059703]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002946832083835256], ["'mechanical disinfection' (unit, DK, None)", 0.0011018532507349713], ["'autoclave' (unit, DK, None)", 0.0029582077344805797], ["'aluminium scrap' (kilogram, RER, None)", -0.0001314788485477648], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007780317903182836], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856208649153e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079553948037e-05], ["'steel recycling' (kilogram, RER, None)", 5.497626516693555e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 1.4519875479224217e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2887344285327514e-08], ["'marginal heating grid' (megajoule, DK, None)", -8.40854057695977e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002946832083835256], ["'wet wipe' (unit, GLO, None)", 0.0005592620967173008], ["'autoclave' (unit, DK, None)", 0.0029582077344805797], ["'aluminium scrap' (kilogram, RER, None)", -0.0001314788485477648], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007780317903182836], ["'waste plastic, mixture' (kilogram, CH, None)", -3.629856208649153e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.440079553948037e-05], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558252291896e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.3743926676954937e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626516693555e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 1.4519875479224217e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5657669800744537e-06], ["'marginal heating grid' (megajoule, DK, None)", -9.116849350865966e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0017206499480313074], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266253674856], ["'autoclave' (unit, DK, None)", 0.0016434487413780998], ["'aluminium scrap' (kilogram, RER, None)", -7.79419356181943e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046122478542900985], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712417298306e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358170650775], ["'steel recycling' (kilogram, RER, None)", 5.497626516693555e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 1.4519875479224217e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6443672142663714e-08], ["'marginal heating grid' (megajoule, DK, None)", -4.204270288479885e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0017206499480313074], ["'wet wipe' (unit, GLO, None)", 0.0005592620967173008], ["'autoclave' (unit, DK, None)", 0.0016434487413780998], ["'aluminium scrap' (kilogram, RER, None)", -7.79419356181943e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00046122478542900985], ["'waste plastic, mixture' (kilogram, CH, None)", -7.259712417298306e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00015797358170650775], ["'waste wipe incineration' (kilogram, CH, None)", -9.969558252291896e-07], ["'waste polyethylene' (kilogram, CH, None)", 1.3743926676954937e-07], ["'steel recycling' (kilogram, RER, None)", 5.497626516693555e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", 1.4519875479224217e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.549323307931786e-06], ["'marginal heating grid' (megajoule, DK, None)", -9.074806647981167e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.010123320841839626], ["'autoclave' (unit, DK, None)", 0.15166276425743005], ["'waste polypropylene' (kilogram, CH, None)", -6.194529003193591e-06], ["'waste polyethylene' (kilogram, CH, None)", -7.5498791825625955e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0038581557554338186], ["'marginal heating grid' (megajoule, DK, None)", -0.013108891206987244], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0014462727685216727], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00015376278014965996], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.986432744467204e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.0030205739629661993], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949901089514637]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.010123320841839626], ["'autoclave' (unit, DK, None)", 0.15166276425743005], ["'waste polypropylene' (kilogram, CH, None)", -4.11038840398827e-05], ["'waste polyethylene' (kilogram, CH, None)", -5.035561619929365e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02572103836955879], ["'marginal heating grid' (megajoule, DK, None)", -0.08739260804658164], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004949901089514637]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.029819860002273543], ["'autoclave' (unit, DK, None)", 0.30332552851486], ["'waste polypropylene' (kilogram, CH, None)", -1.7541516709978116e-05], ["'waste polyethylene' (kilogram, CH, None)", -2.2788167440945817e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011037970386018031], ["'marginal heating grid' (megajoule, DK, None)", -0.037503813248718244], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00407063527564047], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0004627811829747047], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00021045787772191438], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", -0.008508659050609014], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.014082155314790058]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.029819860002273543], ["'autoclave' (unit, DK, None)", 0.30332552851486], ["'waste polypropylene' (kilogram, CH, None)", -0.00011578558884474003], ["'waste polyethylene' (kilogram, CH, None)", -1.5169023311754206e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.07358646924012027], ["'marginal heating grid' (megajoule, DK, None)", -0.2500254216581216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.014082155314790058]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004545736539061259], ["'mechanical disinfection' (unit, DK, None)", 0.17642834315179087], ["'autoclave' (unit, DK, None)", 0.4246557399208042], ["'aluminium scrap' (kilogram, RER, None)", -0.0002158292634754278], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001410654114022615], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588840856723059e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257568176908703], ["'steel recycling' (kilogram, RER, None)", 3.88864528369976e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.742557512475988e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.476880548988706e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00022006556463606994]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.004545736539061259], ["'wet wipe' (unit, GLO, None)", 0.006460183218537589], ["'autoclave' (unit, DK, None)", 0.4246557399208042], ["'aluminium scrap' (kilogram, RER, None)", -0.0002158292634754278], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001410654114022615], ["'waste plastic, mixture' (kilogram, CH, None)", 5.588840856723059e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0009257568176908703], ["'waste wipe incineration' (kilogram, CH, None)", -9.067294371179103e-06], ["'waste polyethylene' (kilogram, CH, None)", -3.3247174381927026e-06], ["'steel recycling' (kilogram, RER, None)", 3.88864528369976e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.742557512475988e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007022472412214244], ["'marginal heating grid' (megajoule, DK, None)", -0.023860318942835086]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0027107039668734065], ["'mechanical disinfection' (unit, DK, None)", 0.08821417157589544], ["'autoclave' (unit, DK, None)", 0.23591985551155786], ["'aluminium scrap' (kilogram, RER, None)", -0.0001279456790512794], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008362494298445904], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177681713446118e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001549193727066448], ["'steel recycling' (kilogram, RER, None)", 3.88864528369976e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.742557512475988e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.238440274494344e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00011003278231803497]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0027107039668734065], ["'wet wipe' (unit, GLO, None)", 0.006460183218537589], ["'autoclave' (unit, DK, None)", 0.23591985551155786], ["'aluminium scrap' (kilogram, RER, None)", -0.0001279456790512794], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008362494298445904], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1177681713446118e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001549193727066448], ["'waste wipe incineration' (kilogram, CH, None)", -9.067294371179103e-06], ["'waste polyethylene' (kilogram, CH, None)", -3.3247174381927026e-06], ["'steel recycling' (kilogram, RER, None)", 3.88864528369976e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.742557512475988e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006990088009469292], ["'marginal heating grid' (megajoule, DK, None)", -0.023750286160517046]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00026126481527636593], ["'autoclave' (unit, DK, None)", 0.0002796853769695363], ["'waste polypropylene' (kilogram, CH, None)", 2.8498014878747134e-06], ["'waste polyethylene' (kilogram, CH, None)", 3.088078015830527e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0169462314515515e-05], ["'marginal heating grid' (megajoule, DK, None)", -1.1545993898648439e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001313746266142141], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -1.0456520609790312e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.002069734512747e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.2771485784800385e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.200237713621832e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00026126481527636593], ["'autoclave' (unit, DK, None)", 0.0002796853769695363], ["'waste polypropylene' (kilogram, CH, None)", 1.890989772328081e-05], ["'waste polyethylene' (kilogram, CH, None)", 2.059663043586049e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.779641543010343e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.697329265765626e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.200237713621832e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488848112413152], ["'autoclave' (unit, DK, None)", 0.0005593707539390724], ["'waste polypropylene' (kilogram, CH, None)", 8.069998605850824e-06], ["'waste polyethylene' (kilogram, CH, None)", 9.320896029433425e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9094269641980022e-05], ["'marginal heating grid' (megajoule, DK, None)", -3.3032450426848114e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003697630219274238], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -3.147108144694171e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.030994110843076e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.597601629521236e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104473748563376e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0007488848112413152], ["'autoclave' (unit, DK, None)", 0.0005593707539390724], ["'waste polypropylene' (kilogram, CH, None)", 5.326731753036848e-05], ["'waste polyethylene' (kilogram, CH, None)", 6.204487022631976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001939617976132003], ["'marginal heating grid' (megajoule, DK, None)", -2.202163361789874e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.104473748563376e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020192017226283404], ["'mechanical disinfection' (unit, DK, None)", 0.00012895512447028435], ["'autoclave' (unit, DK, None)", 0.0007831190555147018], ["'aluminium scrap' (kilogram, RER, None)", -0.00018241107318463148], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001795889677604565], ["'waste plastic, mixture' (kilogram, CH, None)", 4.45741190225323e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254711235769e-06], ["'steel recycling' (kilogram, RER, None)", 2.4082858087503226e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6266724479220004e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7071989010758081e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.9382841969398303e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020192017226283404], ["'wet wipe' (unit, GLO, None)", 4.498308318040242e-05], ["'autoclave' (unit, DK, None)", 0.0007831190555147018], ["'aluminium scrap' (kilogram, RER, None)", -0.00018241107318463148], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001795889677604565], ["'waste plastic, mixture' (kilogram, CH, None)", 4.45741190225323e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.985254711235769e-06], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543084626994e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.3598875666042685e-06], ["'steel recycling' (kilogram, RER, None)", 2.4082858087503226e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6266724479220004e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8510079187486714e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.1015591065927727e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012181063298651663], ["'mechanical disinfection' (unit, DK, None)", 6.447756223514218e-05], ["'autoclave' (unit, DK, None)", 0.000435066141952612], ["'aluminium scrap' (kilogram, RER, None)", -0.00010813505198166703], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001064620805363863], ["'waste plastic, mixture' (kilogram, CH, None)", 8.91482380450646e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0015933856873394e-05], ["'steel recycling' (kilogram, RER, None)", 2.4082858087503226e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6266724479220004e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.535994505379018e-08], ["'marginal heating grid' (megajoule, DK, None)", -9.691420984699151e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0012181063298651663], ["'wet wipe' (unit, GLO, None)", 4.498308318040242e-05], ["'autoclave' (unit, DK, None)", 0.000435066141952612], ["'aluminium scrap' (kilogram, RER, None)", -0.00010813505198166703], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001064620805363863], ["'waste plastic, mixture' (kilogram, CH, None)", 8.91482380450646e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0015933856873394e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.670543084626994e-06], ["'waste polyethylene' (kilogram, CH, None)", 1.3598875666042685e-06], ["'steel recycling' (kilogram, RER, None)", 2.4082858087503226e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.6266724479220004e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8424719242432903e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.0918676856080733e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.10794367115293e-08], ["'autoclave' (unit, DK, None)", -1.5755509588081888e-07], ["'waste polypropylene' (kilogram, CH, None)", 2.1321598023048756e-09], ["'waste polyethylene' (kilogram, CH, None)", 2.570974797297289e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7043468502130604e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.0090990157857788e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.689895039586674e-09], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -2.0227278523616265e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.925531006346426e-10], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.171715760428932e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607177409561e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 3.10794367115293e-08], ["'autoclave' (unit, DK, None)", -1.5755509588081888e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.4147976258284689e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.7147694290230542e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4695645668087067e-08], ["'marginal heating grid' (megajoule, DK, None)", -6.727326771905192e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6518607177409561e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348347307228e-08], ["'autoclave' (unit, DK, None)", -3.1511019176163765e-07], ["'waste polypropylene' (kilogram, CH, None)", 6.037798318676424e-09], ["'waste polyethylene' (kilogram, CH, None)", 7.76009824138356e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0597931608801354e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.8869765138735163e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7272883389565144e-08], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -6.087821691573828e-09], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 2.086232861609171e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5835819043461786e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439193826327e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 8.915348347307228e-08], ["'autoclave' (unit, DK, None)", -3.1511019176163765e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.985345424868927e-08], ["'waste polyethylene' (kilogram, CH, None)", 5.165536519340424e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.065287739200908e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9246510092490107e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.699439193826327e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.6961230024722115e-08], ["'mechanical disinfection' (unit, DK, None)", 1.2061027949315126e-07], ["'autoclave' (unit, DK, None)", -4.4115426846629293e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.065394712384112e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.766984502807274e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220036432619e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.089397734762358e-10], ["'steel recycling' (kilogram, RER, None)", 1.0763091167711266e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.1073067961809938e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.218673786578316e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.694025384574358e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.6961230024722115e-08], ["'wet wipe' (unit, GLO, None)", 9.532841711320018e-08], ["'autoclave' (unit, DK, None)", -4.4115426846629293e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.065394712384112e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.766984502807274e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 1.6348220036432619e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.089397734762358e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359606558e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.1321723878006408e-09], ["'steel recycling' (kilogram, RER, None)", 1.0763091167711266e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.1073067961809938e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.7425151315512184e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.836724707022972e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.18563189793307e-08], ["'mechanical disinfection' (unit, DK, None)", 6.030513974657563e-08], ["'autoclave' (unit, DK, None)", -2.4508570470349603e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2243860018314568e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6402952289013812e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440072865237e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905853942424e-10], ["'steel recycling' (kilogram, RER, None)", 1.0763091167711266e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.1073067961809938e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1093368932891495e-11], ["'marginal heating grid' (megajoule, DK, None)", -8.47012692287179e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.18563189793307e-08], ["'wet wipe' (unit, GLO, None)", 9.532841711320018e-08], ["'autoclave' (unit, DK, None)", -2.4508570470349603e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.2243860018314568e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.6402952289013812e-08], ["'waste plastic, mixture' (kilogram, CH, None)", 3.2696440072865237e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.169905853942424e-10], ["'waste wipe incineration' (kilogram, CH, None)", 2.355220359606558e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.1321723878006408e-09], ["'steel recycling' (kilogram, RER, None)", 1.0763091167711266e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.1073067961809938e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.711421762618319e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.8282545801000998e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00029371875378848903], ["'autoclave' (unit, DK, None)", 0.00020622983649550139], ["'waste polypropylene' (kilogram, CH, None)", 6.539683553499722e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.632216502307784e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.9073072942155755e-06], ["'marginal heating grid' (megajoule, DK, None)", -8.916032600150051e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012053625674852222], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -1.3063240174749865e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8077259521612844e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.495230414109079e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.106662644257292e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00029371875378848903], ["'autoclave' (unit, DK, None)", 0.00020622983649550139], ["'waste polypropylene' (kilogram, CH, None)", 4.339416189705423e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.090478346034642e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9382048628103838e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.944021733433368e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.106662644257292e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452237411763], ["'autoclave' (unit, DK, None)", 0.0004124596729910026], ["'waste polypropylene' (kilogram, CH, None)", 1.8518916978602018e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3036690176690466e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.317645489404921e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.5508276502995058e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003392576762789533], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -3.9316548098761724e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.445556857267142e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 9.845719476363606e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195307554765]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008425452237411763], ["'autoclave' (unit, DK, None)", 0.0004124596729910026], ["'waste polypropylene' (kilogram, CH, None)", 1.2223707576634996e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.5334453339499125e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.5450969929366186e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0001700551766866337], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00011683195307554765]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034152690281258607], ["'mechanical disinfection' (unit, DK, None)", 0.00019474642587122442], ["'autoclave' (unit, DK, None)", 0.0005774435421874039], ["'aluminium scrap' (kilogram, RER, None)", 1.8495184045459077e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00028876357641972905], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705304517535e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498806190064e-06], ["'steel recycling' (kilogram, RER, None)", 5.1962036225822726e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.114762618664976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.880643306667263e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.496779336622911e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034152690281258607], ["'wet wipe' (unit, GLO, None)", 4.381202592156674e-05], ["'autoclave' (unit, DK, None)", 0.0005774435421874039], ["'aluminium scrap' (kilogram, RER, None)", 1.8495184045459077e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00028876357641972905], ["'waste plastic, mixture' (kilogram, CH, None)", 1.7533705304517535e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.680498806190064e-06], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323845749969e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.360976074410767e-07], ["'steel recycling' (kilogram, RER, None)", 5.1962036225822726e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.114762618664976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.291773210219309e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6228632779475815e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020313348909316975], ["'mechanical disinfection' (unit, DK, None)", 9.737321293561221e-05], ["'autoclave' (unit, DK, None)", 0.000320801967881891], ["'aluminium scrap' (kilogram, RER, None)", 1.096412434426003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001711818465919222], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741060903507e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.28528144150964e-05], ["'steel recycling' (kilogram, RER, None)", 5.1962036225822726e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.114762618664976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4403216533336254e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.483896683114556e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020313348909316975], ["'wet wipe' (unit, GLO, None)", 4.381202592156674e-05], ["'autoclave' (unit, DK, None)", 0.000320801967881891], ["'aluminium scrap' (kilogram, RER, None)", 1.096412434426003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001711818465919222], ["'waste plastic, mixture' (kilogram, CH, None)", 3.506741060903507e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.28528144150964e-05], ["'waste wipe incineration' (kilogram, CH, None)", 9.873323845749969e-07], ["'waste polyethylene' (kilogram, CH, None)", 3.360976074410767e-07], ["'steel recycling' (kilogram, RER, None)", 5.1962036225822726e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.114762618664976e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.267369993685966e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.6153793812644665e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00048758486313611347], ["'autoclave' (unit, DK, None)", 0.0003542998955977201], ["'waste polypropylene' (kilogram, CH, None)", 4.470534417017592e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.370346124675096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.626361091137287e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.9849870376004185e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002497454829381653], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -2.7622059931103026e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.8098213741435999e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.1657315097883005e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517142353707e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00048758486313611347], ["'autoclave' (unit, DK, None)", 0.0003542998955977201], ["'waste polypropylene' (kilogram, CH, None)", 2.9664293795163456e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.581873057466785e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.417574060758191e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00019899913584002792], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6894517142353707e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001396529907537372], ["'autoclave' (unit, DK, None)", 0.00070859979119544], ["'waste polypropylene' (kilogram, CH, None)", 1.2659550732302151e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.6209576835028504e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.75404870576932e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.539882942070688e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007029260281372203], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -8.3134355132446e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.451869063788835e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011734454957150145], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651319908536702e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.001396529907537372], ["'autoclave' (unit, DK, None)", 0.00070859979119544], ["'waste polypropylene' (kilogram, CH, None)", 8.356139097229144e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.07899614798518e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018360324705128813], ["'marginal heating grid' (megajoule, DK, None)", -0.0005693255294713791], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.651319908536702e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044223423129471207], ["'mechanical disinfection' (unit, DK, None)", 0.00046844763652066765], ["'autoclave' (unit, DK, None)", 0.0009920397076736164], ["'aluminium scrap' (kilogram, RER, None)", 1.7469199295841852e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003786614624859824], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287590881533e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955579471849e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315094736139e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.2588125896230903e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160257610366526e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.011048207576486e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00044223423129471207], ["'wet wipe' (unit, GLO, None)", 0.0005171412926133554], ["'autoclave' (unit, DK, None)", 0.0009920397076736164], ["'aluminium scrap' (kilogram, RER, None)", 1.7469199295841852e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003786614624859824], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287590881533e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955579471849e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688155725456e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3649230640771065e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315094736139e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.2588125896230903e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7521546427283372e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.433163006144381e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002622607355766743], ["'mechanical disinfection' (unit, DK, None)", 0.00023422381826033382], ["'autoclave' (unit, DK, None)", 0.0005511331709297868], ["'aluminium scrap' (kilogram, RER, None)", 1.0355910641575649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022447418467809116], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575181763066e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417302991705006e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315094736139e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.2588125896230903e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128805183242e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.505524103788243e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002622607355766743], ["'wet wipe' (unit, GLO, None)", 0.0005171412926133554], ["'autoclave' (unit, DK, None)", 0.0005511331709297868], ["'aluminium scrap' (kilogram, RER, None)", 1.0355910641575649e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022447418467809116], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575181763066e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417302991705006e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688155725456e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3649230640771065e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315094736139e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.2588125896230903e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.744074513923153e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.408107765106497e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005212374177240507], ["'autoclave' (unit, DK, None)", 0.00036174474718731993], ["'waste polypropylene' (kilogram, CH, None)", 4.519055436447122e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112799797609e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837745168592478e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.049554080331384e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002702196872611629], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.006245693335412e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.953690957019486e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426336790519e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975378957790073e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004422342312947121], ["'mechanical disinfection' (unit, DK, None)", 0.00046844763652066765], ["'autoclave' (unit, DK, None)", 0.0009920397076736164], ["'aluminium scrap' (kilogram, RER, None)", 1.7469199295841855e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003786614624859825], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287590881533e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955579471849e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315094736139e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.2588125896230905e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6160257610366526e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.011048207576486e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0004422342312947121], ["'wet wipe' (unit, GLO, None)", 0.0005171412926133554], ["'autoclave' (unit, DK, None)", 0.0009920397076736164], ["'aluminium scrap' (kilogram, RER, None)", 1.7469199295841855e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003786614624859825], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0068287590881533e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.029955579471849e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688155725457e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3649230640771065e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315094736139e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.2588125896230905e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7521546427283372e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.433163006144381e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002622607355766743], ["'mechanical disinfection' (unit, DK, None)", 0.00023422381826033382], ["'autoclave' (unit, DK, None)", 0.0005511331709297868], ["'aluminium scrap' (kilogram, RER, None)", 1.035591064157565e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022447418467809118], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575181763066e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417302991705006e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315094736139e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.2588125896230905e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.080128805183242e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.505524103788243e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002622607355766743], ["'wet wipe' (unit, GLO, None)", 0.0005171412926133554], ["'autoclave' (unit, DK, None)", 0.0005511331709297868], ["'aluminium scrap' (kilogram, RER, None)", 1.035591064157565e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00022447418467809118], ["'waste plastic, mixture' (kilogram, CH, None)", 2.0136575181763066e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.417302991705006e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.696688155725457e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3649230640771065e-06], ["'steel recycling' (kilogram, RER, None)", 7.005315094736139e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.2588125896230905e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.744074513923152e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.408107765106497e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005212374177240507], ["'autoclave' (unit, DK, None)", 0.00036174474718731993], ["'waste polypropylene' (kilogram, CH, None)", 4.519055436447122e-06], ["'waste polyethylene' (kilogram, CH, None)", 5.426112799797609e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.837745168592478e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.049554080331384e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002702196872611629], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -3.006245693335412e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.953690957019486e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 4.708426336790519e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975378957790073e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0005212374177240507], ["'autoclave' (unit, DK, None)", 0.00036174474718731993], ["'waste polypropylene' (kilogram, CH, None)", 2.9986255699789315e-05], ["'waste polyethylene' (kilogram, CH, None)", 3.619067894910883e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.558496779061653e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0002033036053554256], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6975378957790073e-05]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175611490185], ["'autoclave' (unit, DK, None)", 0.0007234894943746397], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951376107273e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.637790010214141e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145245220641907e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.72460568287072e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605520999072466], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.047923931397842e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885258866399827e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263172779691605], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324583244707e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001493175611490185], ["'autoclave' (unit, DK, None)", 0.0007234894943746397], ["'waste polypropylene' (kilogram, CH, None)", 8.446832591489948e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006450969509e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763496813761286], ["'marginal heating grid' (megajoule, DK, None)", -0.0005816403788580479], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324583244707e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00045532117181365007], ["'mechanical disinfection' (unit, DK, None)", 0.00047937385325681574], ["'autoclave' (unit, DK, None)", 0.001012885292124496], ["'aluminium scrap' (kilogram, RER, None)", 1.8593339415750646e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003880032132480921], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159320961355e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078786093017e-06], ["'steel recycling' (kilogram, RER, None)", 7.481076186339645e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.3454162028739211e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515118716662508e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.119440156911587e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00045532117181365007], ["'wet wipe' (unit, GLO, None)", 0.000794780153504855], ["'autoclave' (unit, DK, None)", 0.001012885292124496], ["'aluminium scrap' (kilogram, RER, None)", 1.8593339415750646e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003880032132480921], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159320961355e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078786093017e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744348033491e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3894808659659196e-06], ["'steel recycling' (kilogram, RER, None)", 7.481076186339645e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.3454162028739211e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7906299907030726e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.550685549312283e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002700518026031462], ["'mechanical disinfection' (unit, DK, None)", 0.00023968692662840787], ["'autoclave' (unit, DK, None)", 0.0005627140511802755], ["'aluminium scrap' (kilogram, RER, None)", 1.1022311799020605e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023001206506344495], ["'waste plastic, mixture' (kilogram, CH, None)", 2.036631864192271e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.44261069280202e-06], ["'steel recycling' (kilogram, RER, None)", 7.481076186339645e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.3454162028739211e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257559358331233e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5597200784557934e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002700518026031462], ["'wet wipe' (unit, GLO, None)", 0.000794780153504855], ["'autoclave' (unit, DK, None)", 0.0005627140511802755], ["'aluminium scrap' (kilogram, RER, None)", 1.1022311799020605e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023001206506344495], ["'waste plastic, mixture' (kilogram, CH, None)", 2.036631864192271e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.44261069280202e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744348033491e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3894808659659196e-06], ["'steel recycling' (kilogram, RER, None)", 7.481076186339645e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.3454162028739211e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.78237243134474e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.525088348527724e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981153741154], ["'autoclave' (unit, DK, None)", 0.0004990302674826144], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618832982414e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832704150955e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434607188675e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.3397110478853174e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025767992939], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011080135774224667], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533400672838e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0001821025175811086], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821133569467]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001802981153741154], ["'autoclave' (unit, DK, None)", 0.0004990302674826144], ["'waste polypropylene' (kilogram, CH, None)", 8.92517698263319e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553555887839e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7089564047924505e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00015598073652568783], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821133569467]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367470531356], ["'autoclave' (unit, DK, None)", 0.0009980605349652286], ["'waste polypropylene' (kilogram, CH, None)", 3.8089135573772634e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440329968499e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.44995131323106e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.693783998228827e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0026808847360245028], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033347981456404336], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077231737982e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.000512964838256644], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003768067784518655]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005190367470531356], ["'autoclave' (unit, DK, None)", 0.0009980605349652286], ["'waste polypropylene' (kilogram, CH, None)", 0.00025141343613051243], ["'waste polyethylene' (kilogram, CH, None)", 2.8459618001917974e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333008754873746], ["'marginal heating grid' (megajoule, DK, None)", -0.0004462522665485885], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003768067784518655]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001371650165210972], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740220090022], ["'autoclave' (unit, DK, None)", 0.0013972847489513206], ["'aluminium scrap' (kilogram, RER, None)", 9.294823667304972e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008333456274619463], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349112643511e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168639049225e-05], ["'steel recycling' (kilogram, RER, None)", 5.512329405408214e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.030233423736109e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4375869341646252e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.927790876498303e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001371650165210972], ["'wet wipe' (unit, GLO, None)", 0.010511664879345602], ["'autoclave' (unit, DK, None)", 0.0013972847489513206], ["'aluminium scrap' (kilogram, RER, None)", 9.294823667304972e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008333456274619463], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349112643511e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168639049225e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079923019159155e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.237724493571062e-06], ["'steel recycling' (kilogram, RER, None)", 5.512329405408214e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.030233423736109e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5586846953518426e-05], ["'marginal heating grid' (megajoule, DK, None)", -4.258655515186692e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008036763874145908], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870110045011], ["'autoclave' (unit, DK, None)", 0.0007762693049729559], ["'aluminium scrap' (kilogram, RER, None)", 5.510061548769693e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004940153641499697], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698225287022e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.145293702879811e-05], ["'steel recycling' (kilogram, RER, None)", 5.512329405408214e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.030233423736109e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934670823108e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9638954382491515e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008036763874145908], ["'wet wipe' (unit, GLO, None)", 0.010511664879345602], ["'autoclave' (unit, DK, None)", 0.0007762693049729559], ["'aluminium scrap' (kilogram, RER, None)", 5.510061548769693e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004940153641499697], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698225287022e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.145293702879811e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079923019159155e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.237724493571062e-06], ["'steel recycling' (kilogram, RER, None)", 5.512329405408214e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.030233423736109e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5514967606810185e-05], ["'marginal heating grid' (megajoule, DK, None)", -4.2390165608042e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 9.329891668097649e-10], ["'autoclave' (unit, DK, None)", 1.645464363874534e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846529726554e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749244640042e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0219125861170365e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.3674552778946058e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873232417907e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.093295052686509e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.39399821966077e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.1964206490638966e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764559497796e-11]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.0014931756114901847], ["'autoclave' (unit, DK, None)", 0.0007234894943746397], ["'waste polypropylene' (kilogram, CH, None)", 1.2796951376107273e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.637790010214141e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8145245220641907e-05], ["'marginal heating grid' (megajoule, DK, None)", -8.72460568287072e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007605520999072466], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -9.047923931397842e-05], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.885258866399827e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00013263172779691605], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324583244707e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0014931756114901847], ["'autoclave' (unit, DK, None)", 0.0007234894943746397], ["'waste polypropylene' (kilogram, CH, None)", 8.446832591489948e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.0902006450969509e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018763496813761286], ["'marginal heating grid' (megajoule, DK, None)", -0.0005816403788580479], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.674324583244707e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00045532117181365007], ["'mechanical disinfection' (unit, DK, None)", 0.00047937385325681574], ["'autoclave' (unit, DK, None)", 0.001012885292124496], ["'aluminium scrap' (kilogram, RER, None)", 1.8593339415750646e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003880032132480921], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159320961355e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078786093017e-06], ["'steel recycling' (kilogram, RER, None)", 7.481076186339645e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.345416202873921e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6515118716662508e-07], ["'marginal heating grid' (megajoule, DK, None)", -5.119440156911587e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00045532117181365007], ["'wet wipe' (unit, GLO, None)", 0.0007947801535048549], ["'autoclave' (unit, DK, None)", 0.001012885292124496], ["'aluminium scrap' (kilogram, RER, None)", 1.8593339415750646e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0003880032132480921], ["'waste plastic, mixture' (kilogram, CH, None)", 1.0183159320961355e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.045078786093017e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744348033491e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3894808659659196e-06], ["'steel recycling' (kilogram, RER, None)", 7.481076186339645e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.345416202873921e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7906299907030726e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.550685549312283e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027005180260314626], ["'mechanical disinfection' (unit, DK, None)", 0.00023968692662840787], ["'autoclave' (unit, DK, None)", 0.0005627140511802755], ["'aluminium scrap' (kilogram, RER, None)", 1.1022311799020605e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023001206506344495], ["'waste plastic, mixture' (kilogram, CH, None)", 2.036631864192271e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.44261069280202e-06], ["'steel recycling' (kilogram, RER, None)", 7.481076186339645e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.345416202873921e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.257559358331233e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.5597200784557934e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00027005180260314626], ["'wet wipe' (unit, GLO, None)", 0.0007947801535048549], ["'autoclave' (unit, DK, None)", 0.0005627140511802755], ["'aluminium scrap' (kilogram, RER, None)", 1.1022311799020605e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00023001206506344495], ["'waste plastic, mixture' (kilogram, CH, None)", 2.036631864192271e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.44261069280202e-06], ["'waste wipe incineration' (kilogram, CH, None)", 6.748744348033491e-06], ["'waste polyethylene' (kilogram, CH, None)", 2.3894808659659196e-06], ["'steel recycling' (kilogram, RER, None)", 7.481076186339645e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.345416202873921e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7823724313447394e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.525088348527724e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0018029811537411539], ["'autoclave' (unit, DK, None)", 0.0004990302674826144], ["'waste polypropylene' (kilogram, CH, None)", 1.3450618832982414e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.4164832704150955e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.563434607188675e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.339711047885317e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009525025767992939], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00011080135774224669], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 6.581533400672838e-06], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.00018210251758110857], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821133569467]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0018029811537411539], ["'autoclave' (unit, DK, None)", 0.0004990302674826144], ["'waste polypropylene' (kilogram, CH, None)", 8.92517698263319e-05], ["'waste polyethylene' (kilogram, CH, None)", 9.447553555887839e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.70895640479245e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.0001559807365256878], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013244821133569467]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367470531356], ["'autoclave' (unit, DK, None)", 0.0009980605349652286], ["'waste polypropylene' (kilogram, CH, None)", 3.8089135573772634e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.275440329968499e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4499513132310596e-05], ["'marginal heating grid' (megajoule, DK, None)", -6.693783998228827e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0026808847360245028], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0003334798145640434], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.9826077231737982e-05], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.000512964838256644], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003768067784518655]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005190367470531356], ["'autoclave' (unit, DK, None)", 0.0009980605349652286], ["'waste polypropylene' (kilogram, CH, None)", 0.00025141343613051243], ["'waste polyethylene' (kilogram, CH, None)", 2.8459618001917974e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016333008754873743], ["'marginal heating grid' (megajoule, DK, None)", -0.00044625226654858844], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003768067784518655]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001371650165210972], ["'mechanical disinfection' (unit, DK, None)", 0.0005029740220090022], ["'autoclave' (unit, DK, None)", 0.0013972847489513206], ["'aluminium scrap' (kilogram, RER, None)", 9.29482366730497e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008333456274619463], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349112643511e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168639049225e-05], ["'steel recycling' (kilogram, RER, None)", 5.512329405408214e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0302334237361093e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.437586934164625e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.9277908764983025e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001371650165210972], ["'wet wipe' (unit, GLO, None)", 0.010511664879345602], ["'autoclave' (unit, DK, None)", 0.0013972847489513206], ["'aluminium scrap' (kilogram, RER, None)", 9.29482366730497e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008333456274619463], ["'waste plastic, mixture' (kilogram, CH, None)", 5.544349112643511e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4771168639049225e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079923019159155e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.237724493571062e-06], ["'steel recycling' (kilogram, RER, None)", 5.512329405408214e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0302334237361093e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5586846953518423e-05], ["'marginal heating grid' (megajoule, DK, None)", -4.258655515186692e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008036763874145908], ["'mechanical disinfection' (unit, DK, None)", 0.0002514870110045011], ["'autoclave' (unit, DK, None)", 0.0007762693049729559], ["'aluminium scrap' (kilogram, RER, None)", 5.510061548769692e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004940153641499697], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698225287022e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.145293702879811e-05], ["'steel recycling' (kilogram, RER, None)", 5.512329405408214e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0302334237361093e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.187934670823106e-08], ["'marginal heating grid' (megajoule, DK, None)", -1.9638954382491513e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008036763874145908], ["'wet wipe' (unit, GLO, None)", 0.010511664879345602], ["'autoclave' (unit, DK, None)", 0.0007762693049729559], ["'aluminium scrap' (kilogram, RER, None)", 5.510061548769692e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004940153641499697], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1088698225287022e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.145293702879811e-05], ["'waste wipe incineration' (kilogram, CH, None)", 1.3079923019159155e-06], ["'waste polyethylene' (kilogram, CH, None)", 6.237724493571062e-06], ["'steel recycling' (kilogram, RER, None)", 5.512329405408214e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0302334237361093e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5514967606810174e-05], ["'marginal heating grid' (megajoule, DK, None)", -4.2390165608041995e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 9.329891668097649e-10], ["'autoclave' (unit, DK, None)", 1.645464363874534e-09], ["'waste polypropylene' (kilogram, CH, None)", 8.002846529726554e-11], ["'waste polyethylene' (kilogram, CH, None)", 9.650749244640042e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.0219125861170365e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.3674552778946058e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.837873232417907e-10], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -5.093295052686509e-11], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 5.39399821966077e-12], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 1.1964206490638966e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764559497796e-11]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 9.329891668097649e-10], ["'autoclave' (unit, DK, None)", 1.645464363874534e-09], ["'waste polypropylene' (kilogram, CH, None)", 5.310300033743789e-10], ["'waste polyethylene' (kilogram, CH, None)", 6.436784129223222e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6812750574113577e-10], ["'marginal heating grid' (megajoule, DK, None)", -9.116368519297373e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.352764559497796e-11]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 2.679934544778595e-09], ["'autoclave' (unit, DK, None)", 3.290928727749067e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.266226634118828e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932570171169e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469628186726e-10], ["'marginal heating grid' (megajoule, DK, None)", -3.912213974344207e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530621043778e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5329334624590462e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.6248770427863944e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.370199011447596e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.660802322464721e-10]]</t>
+    <t>[["'H400' (unit, GLO, None)", 2.679934544778595e-09], ["'autoclave' (unit, DK, None)", 3.290928727749067e-09], ["'waste polypropylene' (kilogram, CH, None)", 2.266226634118828e-10], ["'waste polyethylene' (kilogram, CH, None)", 2.912932570171169e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1506469628186726e-10], ["'marginal heating grid' (megajoule, DK, None)", -3.912213974344207e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3616530621043778e-09], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -1.5329334624590462e-10], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.6248770427863944e-11], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 3.370199011447596e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.660802322464721e-10]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 2.679934544778595e-09], ["'autoclave' (unit, DK, None)", 3.290928727749067e-09], ["'waste polypropylene' (kilogram, CH, None)", 1.4958591644348701e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.9390037473175865e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.67097975212449e-10], ["'marginal heating grid' (megajoule, DK, None)", -2.6081426495628045e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.660802322464721e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.0590716369466e-10], ["'mechanical disinfection' (unit, DK, None)", 1.9507224726484442e-09], ["'autoclave' (unit, DK, None)", 4.607300218848696e-09], ["'aluminium scrap' (kilogram, RER, None)", 3.992630246054938e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.452621954795066e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229645912334e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037514756956e-11], ["'steel recycling' (kilogram, RER, None)", 1.9251711059640957e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.944339028732669e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787395329052e-13], ["'marginal heating grid' (megajoule, DK, None)", -2.2956161058385324e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 8.0590716369466e-10], ["'wet wipe' (unit, GLO, None)", 2.815778281345024e-10], ["'autoclave' (unit, DK, None)", 4.607300218848696e-09], ["'aluminium scrap' (kilogram, RER, None)", 3.992630246054938e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.452621954795066e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229645912334e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037514756956e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.48602855837948e-12], ["'waste polyethylene' (kilogram, CH, None)", 4.249871226997449e-11], ["'steel recycling' (kilogram, RER, None)", 1.9251711059640957e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.944339028732669e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.32053653888018e-11], ["'marginal heating grid' (megajoule, DK, None)", -2.4889915215130696e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.780472644411483e-10], ["'mechanical disinfection' (unit, DK, None)", 9.753612363242221e-10], ["'autoclave' (unit, DK, None)", 2.5596112326937198e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.3668699035816102e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.825176829005125e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459291824668e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.927178528273203e-11], ["'steel recycling' (kilogram, RER, None)", 1.9251711059640957e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.944339028732669e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758936976645176e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.1478080529192662e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.780472644411483e-10], ["'wet wipe' (unit, GLO, None)", 2.815778281345024e-10], ["'autoclave' (unit, DK, None)", 2.5596112326937198e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.3668699035816102e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.825176829005125e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459291824668e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.927178528273203e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.48602855837948e-12], ["'waste polyethylene' (kilogram, CH, None)", 4.249871226997449e-11], ["'steel recycling' (kilogram, RER, None)", 1.9251711059640957e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.944339028732669e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.28677760190353e-11], ["'marginal heating grid' (megajoule, DK, None)", -2.4775134409838765e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419969351068e-07], ["'autoclave' (unit, DK, None)", 2.0192527149933443e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.010553163976549e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669213868e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844134148184125e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.1810016993365141e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114190936432e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3579791668966048e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.557927650491699e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.974190386095817e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.003460489779693e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.401419969351068e-07], ["'autoclave' (unit, DK, None)", 2.0192527149933443e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.997656772358271e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728206591582e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.562756098789417e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.873344662243428e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.003460489779693e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507904659474e-06], ["'autoclave' (unit, DK, None)", 4.038505429986687e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.52521129612051e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816478636355e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997855342614584e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.378780590895983e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005649766877e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.096830502310168e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828823351885e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.527940953829808e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1389591709847923e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.261507904659474e-06], ["'autoclave' (unit, DK, None)", 4.038505429986687e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202175657102e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573925112e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903561743062e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.252520393930655e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1389591709847923e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.260334205701579e-07], ["'mechanical disinfection' (unit, DK, None)", 2.538955118111948e-07], ["'autoclave' (unit, DK, None)", 5.653907601981364e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.8696480657388168e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.427806298611109e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879965961337e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484650189237e-09], ["'steel recycling' (kilogram, RER, None)", 2.271447351778311e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.328441347179034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341770095917e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.9826070847404583e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.260334205701579e-07], ["'wet wipe' (unit, GLO, None)", 8.507613607132758e-08], ["'autoclave' (unit, DK, None)", 5.653907601981364e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.8696480657388168e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.427806298611109e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879965961337e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484650189237e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005179761396e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.597979303873997e-08], ["'steel recycling' (kilogram, RER, None)", 2.271447351778311e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.328441347179034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.996950801287263e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.1496156138041306e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.128299394370146e-07], ["'mechanical disinfection' (unit, DK, None)", 1.269477559055974e-07], ["'autoclave' (unit, DK, None)", 3.1410597788785355e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7011551839491147e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6248464849523457e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775993192267e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981779870923e-08], ["'steel recycling' (kilogram, RER, None)", 2.271447351778311e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.328441347179034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.22667088504795e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.913035423702291e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.128299394370146e-07], ["'wet wipe' (unit, GLO, None)", 8.507613607132758e-08], ["'autoclave' (unit, DK, None)", 3.1410597788785355e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7011551839491147e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6248464849523457e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775993192267e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.252981779870923e-08], ["'waste wipe incineration' (kilogram, CH, None)", 2.497005179761396e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.597979303873997e-08], ["'steel recycling' (kilogram, RER, None)", 2.271447351778311e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.328441347179034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.964684092436779e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.1397025783804278e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384661815287], ["'autoclave' (unit, DK, None)", 0.0019517439812016507], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808229486044e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.1423569255431055e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758488332884e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00016357414678805785], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249405013984], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004061377924600983], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144833924984], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0049497912960537295], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.158618996825375e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05619384661815287], ["'autoclave' (unit, DK, None)", 0.0019517439812016507], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863404612235], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380595136126e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042738389922219224], ["'marginal heating grid' (megajoule, DK, None)", -0.0010904943119203858], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.158618996825375e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.160762855363042], ["'autoclave' (unit, DK, None)", 0.0039034879624032996], ["'waste polypropylene' (kilogram, CH, None)", 9.878595227602123e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.250307732572185e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340825729099033], ["'marginal heating grid' (megajoule, DK, None)", -0.0004679765936411067], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1147169271333175], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012223564627439853], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003496211442406563], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074073390788], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520881259955735e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.160762855363042], ["'autoclave' (unit, DK, None)", 0.0039034879624032996], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524902707673], ["'waste polyethylene' (kilogram, CH, None)", 8.322717125632478e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227217152732698], ["'marginal heating grid' (megajoule, DK, None)", -0.0031198439576073777], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520881259955735e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00853063684272358], ["'mechanical disinfection' (unit, DK, None)", 0.0035366366333530845], ["'autoclave' (unit, DK, None)", 0.0054648831473646225], ["'aluminium scrap' (kilogram, RER, None)", 0.0006590805746771369], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005735203295560044], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799807057015e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1518176668113281e-07], ["'steel recycling' (kilogram, RER, None)", 3.182658719558748e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.0293675489147576e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762063428587191e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.746001656767916e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00853063684272358], ["'wet wipe' (unit, GLO, None)", 0.005410322042922756], ["'autoclave' (unit, DK, None)", 0.0054648831473646225], ["'aluminium scrap' (kilogram, RER, None)", 0.0006590805746771369], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005735203295560044], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799807057015e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1518176668113281e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372889284e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.824157178220817e-05], ["'steel recycling' (kilogram, RER, None)", 3.182658719558748e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.0293675489147576e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011668625498667536], ["'marginal heating grid' (megajoule, DK, None)", -0.0002977316121965266]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005033666270039005], ["'mechanical disinfection' (unit, DK, None)", 0.0017683183166765423], ["'autoclave' (unit, DK, None)", 0.0030360461929803454], ["'aluminium scrap' (kilogram, RER, None)", 0.00039070935200672785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0033998840951014403], ["'waste plastic, mixture' (kilogram, CH, None)", 1.649959961411403e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274918316013595e-07], ["'steel recycling' (kilogram, RER, None)", 3.182658719558748e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.0293675489147576e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031714293582e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.373000828383958e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005033666270039005], ["'wet wipe' (unit, GLO, None)", 0.005410322042922756], ["'autoclave' (unit, DK, None)", 0.0030360461929803454], ["'aluminium scrap' (kilogram, RER, None)", 0.00039070935200672785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0033998840951014403], ["'waste plastic, mixture' (kilogram, CH, None)", 1.649959961411403e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274918316013595e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372889284e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.824157178220817e-05], ["'steel recycling' (kilogram, RER, None)", 3.182658719558748e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.0293675489147576e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00011614815181524592], ["'marginal heating grid' (megajoule, DK, None)", -0.0002963586113681426]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.059071636946599e-10], ["'mechanical disinfection' (unit, DK, None)", 1.9507224726484442e-09], ["'autoclave' (unit, DK, None)", 4.607300218848696e-09], ["'aluminium scrap' (kilogram, RER, None)", 3.992630246054937e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.452621954795066e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229645912334e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037514756956e-11], ["'steel recycling' (kilogram, RER, None)", 1.925171105964096e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.944339028732669e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.751787395329052e-13], ["'marginal heating grid' (megajoule, DK, None)", -2.2956161058385324e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 8.059071636946599e-10], ["'wet wipe' (unit, GLO, None)", 2.815778281345024e-10], ["'autoclave' (unit, DK, None)", 4.607300218848696e-09], ["'aluminium scrap' (kilogram, RER, None)", 3.992630246054937e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.452621954795066e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 1.1041229645912334e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7492037514756956e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.48602855837948e-12], ["'waste polyethylene' (kilogram, CH, None)", 4.249871226997449e-11], ["'steel recycling' (kilogram, RER, None)", 1.925171105964096e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.944339028732669e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.32053653888018e-11], ["'marginal heating grid' (megajoule, DK, None)", -2.4889915215130696e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.780472644411482e-10], ["'mechanical disinfection' (unit, DK, None)", 9.753612363242221e-10], ["'autoclave' (unit, DK, None)", 2.5596112326937198e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.36686990358161e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.825176829005125e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459291824668e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.927178528273203e-11], ["'steel recycling' (kilogram, RER, None)", 1.925171105964096e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.944339028732669e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3758936976645176e-13], ["'marginal heating grid' (megajoule, DK, None)", -1.1478080529192662e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.780472644411482e-10], ["'wet wipe' (unit, GLO, None)", 2.815778281345024e-10], ["'autoclave' (unit, DK, None)", 2.5596112326937198e-09], ["'aluminium scrap' (kilogram, RER, None)", 2.36686990358161e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -3.825176829005125e-10], ["'waste plastic, mixture' (kilogram, CH, None)", 2.2082459291824668e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.927178528273203e-11], ["'waste wipe incineration' (kilogram, CH, None)", 6.48602855837948e-12], ["'waste polyethylene' (kilogram, CH, None)", 4.249871226997449e-11], ["'steel recycling' (kilogram, RER, None)", 1.925171105964096e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.944339028732669e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.286777601903527e-11], ["'marginal heating grid' (megajoule, DK, None)", -2.4775134409838765e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419969351068e-07], ["'autoclave' (unit, DK, None)", 2.0192527149933445e-07], ["'waste polypropylene' (kilogram, CH, None)", 3.01055316397655e-08], ["'waste polyethylene' (kilogram, CH, None)", 3.628744669213869e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.844134148184126e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.1810016993365141e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1918114190936435e-07], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -2.3579791668966048e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 3.557927650491699e-09], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 8.97419038609582e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.003460489779694e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.401419969351068e-07], ["'autoclave' (unit, DK, None)", 2.0192527149933445e-07], ["'waste polypropylene' (kilogram, CH, None)", 1.9976567723582714e-07], ["'waste polyethylene' (kilogram, CH, None)", 2.4202728206591585e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5627560987894174e-08], ["'marginal heating grid' (megajoule, DK, None)", -7.873344662243428e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.003460489779694e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.2615079046594742e-06], ["'autoclave' (unit, DK, None)", 4.0385054299866875e-07], ["'waste polypropylene' (kilogram, CH, None)", 8.525211296120511e-08], ["'waste polyethylene' (kilogram, CH, None)", 1.0952816478636357e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0997855342614587e-08], ["'marginal heating grid' (megajoule, DK, None)", -3.378780590895983e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.169005649766878e-07], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -7.096830502310168e-08], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 1.0717828823351885e-08], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 2.5279409538298087e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1389591709847926e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.2615079046594742e-06], ["'autoclave' (unit, DK, None)", 4.0385054299866875e-07], ["'waste polypropylene' (kilogram, CH, None)", 5.627202175657103e-07], ["'waste polyethylene' (kilogram, CH, None)", 7.290780573925113e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.331903561743063e-08], ["'marginal heating grid' (megajoule, DK, None)", -2.2525203939306553e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1389591709847926e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.260334205701578e-07], ["'mechanical disinfection' (unit, DK, None)", 2.538955118111948e-07], ["'autoclave' (unit, DK, None)", 5.653907601981365e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.8696480657388168e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.427806298611109e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879965961326e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484650189238e-09], ["'steel recycling' (kilogram, RER, None)", 2.271447351778311e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.328441347179034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.453341770095918e-11], ["'marginal heating grid' (megajoule, DK, None)", -1.9826070847404585e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.260334205701578e-07], ["'wet wipe' (unit, GLO, None)", 8.507613607132759e-08], ["'autoclave' (unit, DK, None)", 5.653907601981365e-07], ["'aluminium scrap' (kilogram, RER, None)", 2.8696480657388168e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.427806298611109e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 4.5943879965961326e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.487484650189238e-09], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051797613955e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.5979793038739973e-08], ["'steel recycling' (kilogram, RER, None)", 2.271447351778311e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.328441347179034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.996950801287264e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.1496156138041306e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.1282993943701455e-07], ["'mechanical disinfection' (unit, DK, None)", 1.269477559055974e-07], ["'autoclave' (unit, DK, None)", 3.141059778878536e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7011551839491147e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6248464849523457e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775993192265e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2529817798709233e-08], ["'steel recycling' (kilogram, RER, None)", 2.271447351778311e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.328441347179034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2266708850479507e-11], ["'marginal heating grid' (megajoule, DK, None)", -9.913035423702293e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.1282993943701455e-07], ["'wet wipe' (unit, GLO, None)", 8.507613607132759e-08], ["'autoclave' (unit, DK, None)", 3.141059778878536e-07], ["'aluminium scrap' (kilogram, RER, None)", 1.7011551839491147e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.6248464849523457e-07], ["'waste plastic, mixture' (kilogram, CH, None)", 9.188775993192265e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2529817798709233e-08], ["'waste wipe incineration' (kilogram, CH, None)", 2.4970051797613955e-09], ["'waste polyethylene' (kilogram, CH, None)", 1.5979793038739973e-08], ["'steel recycling' (kilogram, RER, None)", 2.271447351778311e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.328441347179034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.964684092436777e-09], ["'marginal heating grid' (megajoule, DK, None)", -2.139702578380428e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.056193846618152875], ["'autoclave' (unit, DK, None)", 0.0019517439812016505], ["'waste polypropylene' (kilogram, CH, None)", 3.4884808229486044e-05], ["'waste polyethylene' (kilogram, CH, None)", 4.142356925543105e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.410758488332885e-05], ["'marginal heating grid' (megajoule, DK, None)", -0.00016357414678805785], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040758249405013984], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.004061377924600983], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.00011606144833924984], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.0049497912960537295], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.158618996825374e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.056193846618152875], ["'autoclave' (unit, DK, None)", 0.0019517439812016505], ["'waste polypropylene' (kilogram, CH, None)", 0.00023147863404612235], ["'waste polyethylene' (kilogram, CH, None)", 2.7628380595136123e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004273838992221923], ["'marginal heating grid' (megajoule, DK, None)", -0.0010904943119203858], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.158618996825374e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16076285536304202], ["'autoclave' (unit, DK, None)", 0.003903487962403299], ["'waste polypropylene' (kilogram, CH, None)", 9.878595227602123e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.2503077325721849e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018340825729099036], ["'marginal heating grid' (megajoule, DK, None)", -0.0004679765936411067], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1147169271333175], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.012223564627439853], ["'polyethylene recycling' (kilogram, Europe without Switzerland, None)", 0.0003496211442406563], ["'polypropylene recycling' (kilogram, Europe without Switzerland, None)", 0.013943074073390788], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520881259955732e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16076285536304202], ["'autoclave' (unit, DK, None)", 0.003903487962403299], ["'waste polypropylene' (kilogram, CH, None)", 0.0006520524902707673], ["'waste polyethylene' (kilogram, CH, None)", 8.322717125632476e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012227217152732698], ["'marginal heating grid' (megajoule, DK, None)", -0.0031198439576073777], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.7520881259955732e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008530636842723581], ["'mechanical disinfection' (unit, DK, None)", 0.0035366366333530845], ["'autoclave' (unit, DK, None)", 0.005464883147364622], ["'aluminium scrap' (kilogram, RER, None)", 0.0006590805746771369], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005735203295560044], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799807057015e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.151817666811328e-07], ["'steel recycling' (kilogram, RER, None)", 3.1826587195587477e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.0293675489147576e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0762063428587193e-06], ["'marginal heating grid' (megajoule, DK, None)", -2.746001656767916e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008530636842723581], ["'wet wipe' (unit, GLO, None)", 0.005410322042922755], ["'autoclave' (unit, DK, None)", 0.005464883147364622], ["'aluminium scrap' (kilogram, RER, None)", 0.0006590805746771369], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005735203295560044], ["'waste plastic, mixture' (kilogram, CH, None)", 8.249799807057015e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.151817666811328e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372889284e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.8241571782208166e-05], ["'steel recycling' (kilogram, RER, None)", 3.1826587195587477e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.0293675489147576e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011668625498667537], ["'marginal heating grid' (megajoule, DK, None)", -0.0002977316121965266]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005033666270039006], ["'mechanical disinfection' (unit, DK, None)", 0.0017683183166765423], ["'autoclave' (unit, DK, None)", 0.003036046192980345], ["'aluminium scrap' (kilogram, RER, None)", 0.00039070935200672785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0033998840951014403], ["'waste plastic, mixture' (kilogram, CH, None)", 1.649959961411403e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274918316013592e-07], ["'steel recycling' (kilogram, RER, None)", 3.1826587195587477e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.0293675489147576e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.381031714293583e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.373000828383958e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005033666270039006], ["'wet wipe' (unit, GLO, None)", 0.005410322042922755], ["'autoclave' (unit, DK, None)", 0.003036046192980345], ["'aluminium scrap' (kilogram, RER, None)", 0.00039070935200672785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0033998840951014403], ["'waste plastic, mixture' (kilogram, CH, None)", 1.649959961411403e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9274918316013592e-07], ["'waste wipe incineration' (kilogram, CH, None)", 4.6004372889284e-05], ["'waste polyethylene' (kilogram, CH, None)", 1.8241571782208166e-05], ["'steel recycling' (kilogram, RER, None)", 3.1826587195587477e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.0293675489147576e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011614815181524588], ["'marginal heating grid' (megajoule, DK, None)", -0.0002963586113681426]]</t>
   </si>
 </sst>
 </file>
